--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111481804</v>
+        <v>111479791</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489649.3234224396</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R2" t="n">
-        <v>7140827.054006468</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111479768</v>
+        <v>111479776</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>96368</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489784.979046855</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R3" t="n">
-        <v>7140845.63580357</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111479785</v>
+        <v>111479792</v>
       </c>
       <c r="B4" t="n">
-        <v>89590</v>
+        <v>78611</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>6463</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489747.1332446564</v>
+        <v>489806.0675517298</v>
       </c>
       <c r="R4" t="n">
-        <v>7140669.232153737</v>
+        <v>7140673.795043741</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111476428</v>
+        <v>111481803</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489876.9016010665</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R5" t="n">
-        <v>7140870.85750405</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476418</v>
+        <v>111479767</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489778.5245607619</v>
+        <v>490050.1831033034</v>
       </c>
       <c r="R6" t="n">
-        <v>7140728.837106518</v>
+        <v>7140737.894443879</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111481803</v>
+        <v>111479763</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489663.3563524204</v>
+        <v>489823.5173122073</v>
       </c>
       <c r="R7" t="n">
-        <v>7140749.12648284</v>
+        <v>7140970.976177845</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476450</v>
+        <v>111476429</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,46 +1364,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489998.828683018</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R8" t="n">
-        <v>7140931.460910414</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1454,7 +1446,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1473,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111476434</v>
+        <v>111481810</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,13 +1504,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>490140.7149260837</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R9" t="n">
-        <v>7140869.131914983</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1573,19 +1564,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111481811</v>
+        <v>111476428</v>
       </c>
       <c r="B10" t="n">
         <v>78578</v>
@@ -1625,13 +1616,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489798.9642616356</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R10" t="n">
-        <v>7141012.591141199</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1685,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479792</v>
+        <v>111476452</v>
       </c>
       <c r="B11" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1737,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489806.0675517298</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R11" t="n">
-        <v>7140673.795043741</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111481801</v>
+        <v>111481808</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489644.5611277207</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R12" t="n">
-        <v>7140827.935422103</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1921,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111481799</v>
+        <v>111481807</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489701.4212471162</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R13" t="n">
-        <v>7140989.555053207</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2033,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111476427</v>
+        <v>111476432</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2073,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489901.6080066679</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R14" t="n">
-        <v>7140875.102526958</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111476432</v>
+        <v>111481801</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2185,13 +2176,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489837.4677177655</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R15" t="n">
-        <v>7140736.429197143</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2245,19 +2236,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111476426</v>
+        <v>111481812</v>
       </c>
       <c r="B16" t="n">
         <v>78578</v>
@@ -2297,13 +2288,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490023.2829794704</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R16" t="n">
-        <v>7140991.518518048</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2357,22 +2348,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111481815</v>
+        <v>111481804</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2385,21 +2376,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489677.1923899396</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R17" t="n">
-        <v>7140998.289362041</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2481,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111481812</v>
+        <v>111481799</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2493,25 +2484,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489776.5506159168</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R18" t="n">
-        <v>7140656.585996962</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2593,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481813</v>
+        <v>111481809</v>
       </c>
       <c r="B19" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2633,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489665.5194976524</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R19" t="n">
-        <v>7140748.253840107</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2705,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111479791</v>
+        <v>111481805</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2745,13 +2736,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489746.2870670959</v>
+        <v>489644.1308507675</v>
       </c>
       <c r="R20" t="n">
-        <v>7140675.292557321</v>
+        <v>7140828.802200046</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2805,22 +2796,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476425</v>
+        <v>111476434</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2833,21 +2824,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2857,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490173.9669357104</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R21" t="n">
-        <v>7140836.575755515</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2929,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111476433</v>
+        <v>111479784</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2941,25 +2932,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2969,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489815.0024043967</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R22" t="n">
-        <v>7140755.108741223</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3029,22 +3020,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481805</v>
+        <v>111479764</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3057,21 +3048,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3081,13 +3072,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489644.1308507675</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R23" t="n">
-        <v>7140828.802200046</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3141,22 +3132,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481800</v>
+        <v>111479768</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3165,25 +3156,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,13 +3184,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489821.9038792807</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R24" t="n">
-        <v>7141006.890577544</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3253,22 +3244,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111479767</v>
+        <v>111479780</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3281,21 +3272,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3305,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490050.1831033034</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R25" t="n">
-        <v>7140737.894443879</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3377,7 +3368,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111479780</v>
+        <v>111476426</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3417,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489832.05664893</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R26" t="n">
-        <v>7140672.410641763</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3477,22 +3468,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111479784</v>
+        <v>111481815</v>
       </c>
       <c r="B27" t="n">
-        <v>78612</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3501,25 +3492,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3529,13 +3520,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489806.0819462601</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R27" t="n">
-        <v>7140678.121827234</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3589,22 +3580,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481798</v>
+        <v>111481802</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3613,25 +3604,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3641,10 +3632,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489695.5635774976</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R28" t="n">
-        <v>7140664.64561378</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3713,10 +3704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111479770</v>
+        <v>111476422</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3725,25 +3716,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3753,10 +3744,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489808.3171113685</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R29" t="n">
-        <v>7140829.11698899</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3807,26 +3798,25 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111476449</v>
+        <v>111479781</v>
       </c>
       <c r="B30" t="n">
         <v>78578</v>
@@ -3866,10 +3856,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489815.4226730386</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R30" t="n">
-        <v>7140751.213293974</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3926,22 +3916,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111481814</v>
+        <v>111479769</v>
       </c>
       <c r="B31" t="n">
-        <v>78612</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3950,25 +3940,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3978,13 +3968,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489733.9516960242</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R31" t="n">
-        <v>7141001.992384473</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4038,22 +4028,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111479781</v>
+        <v>111476450</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4062,38 +4052,46 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489808.2480602256</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R32" t="n">
-        <v>7140678.114621677</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4144,25 +4142,26 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111479772</v>
+        <v>111476439</v>
       </c>
       <c r="B33" t="n">
         <v>90087</v>
@@ -4202,10 +4201,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489831.4084576743</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R33" t="n">
-        <v>7140738.179997628</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4256,29 +4255,28 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111479764</v>
+        <v>111476445</v>
       </c>
       <c r="B34" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4291,21 +4289,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4315,10 +4313,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489825.6631737759</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R34" t="n">
-        <v>7140704.017605744</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4375,22 +4373,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111479769</v>
+        <v>111476447</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4403,21 +4401,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4427,10 +4425,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489821.4272813612</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R35" t="n">
-        <v>7140733.021041368</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4487,19 +4485,19 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111476441</v>
+        <v>111476421</v>
       </c>
       <c r="B36" t="n">
         <v>96368</v>
@@ -4611,10 +4609,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111481816</v>
+        <v>111481813</v>
       </c>
       <c r="B37" t="n">
-        <v>89423</v>
+        <v>78612</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4623,25 +4621,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4651,10 +4649,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489798.9642616356</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R37" t="n">
-        <v>7141012.591141199</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4723,10 +4721,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111481808</v>
+        <v>111481814</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4735,25 +4733,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4763,10 +4761,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489618.6049431616</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R38" t="n">
-        <v>7140966.471951276</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4835,10 +4833,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111481809</v>
+        <v>111479788</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4851,21 +4849,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4875,13 +4873,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489716.1870822187</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R39" t="n">
-        <v>7141000.754049809</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4935,22 +4933,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111481810</v>
+        <v>111479785</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4959,25 +4957,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4987,13 +4985,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489736.1248279089</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R40" t="n">
-        <v>7141004.148289163</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5047,22 +5045,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111479763</v>
+        <v>111479775</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5071,25 +5069,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5099,10 +5097,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489823.5173122073</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R41" t="n">
-        <v>7140970.976177845</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5171,10 +5169,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481807</v>
+        <v>111481816</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5187,21 +5185,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5211,10 +5209,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489622.997758265</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R42" t="n">
-        <v>7140856.56393067</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5283,10 +5281,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111481802</v>
+        <v>111481811</v>
       </c>
       <c r="B43" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5299,21 +5297,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5323,10 +5321,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489735.2410806222</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R43" t="n">
-        <v>7140998.959601722</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5395,10 +5393,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111476442</v>
+        <v>111481798</v>
       </c>
       <c r="B44" t="n">
-        <v>78579</v>
+        <v>90087</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5407,25 +5405,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5435,13 +5433,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>490176.9771446643</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R44" t="n">
-        <v>7140829.643533329</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5495,22 +5493,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111479788</v>
+        <v>111481800</v>
       </c>
       <c r="B45" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5519,25 +5517,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5547,13 +5545,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489770.4450087619</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R45" t="n">
-        <v>7140644.491144991</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5607,22 +5605,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111479775</v>
+        <v>111479772</v>
       </c>
       <c r="B46" t="n">
-        <v>78605</v>
+        <v>90087</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5635,21 +5633,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6462</v>
+        <v>3298</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5659,10 +5657,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489737.5515961287</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R46" t="n">
-        <v>7140654.120246909</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5713,6 +5711,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5731,10 +5730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479776</v>
+        <v>111479770</v>
       </c>
       <c r="B47" t="n">
-        <v>96368</v>
+        <v>90087</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5747,21 +5746,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221952</v>
+        <v>3298</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5771,10 +5770,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489790.1442766788</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R47" t="n">
-        <v>7140835.667408227</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5825,6 +5824,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111480298</v>
+        <v>111492274</v>
       </c>
       <c r="B48" t="n">
         <v>78578</v>
@@ -5883,10 +5883,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>489766.2095541009</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R48" t="n">
-        <v>7140673.495220769</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5943,22 +5943,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111480445</v>
+        <v>111492266</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5971,21 +5971,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490117.731828619</v>
+        <v>490044.5119551711</v>
       </c>
       <c r="R49" t="n">
-        <v>7140861.85080409</v>
+        <v>7140725.797964292</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6055,22 +6055,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111492259</v>
+        <v>111492272</v>
       </c>
       <c r="B50" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6083,21 +6083,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6107,10 +6107,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>490044.5091435921</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R50" t="n">
-        <v>7140724.932621562</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6179,10 +6179,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111492254</v>
+        <v>111480297</v>
       </c>
       <c r="B51" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6195,21 +6195,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6219,10 +6219,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>489798.4158412284</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R51" t="n">
-        <v>7140977.981913811</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6279,22 +6279,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111492271</v>
+        <v>111480335</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6303,25 +6303,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>490018.4433133323</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R52" t="n">
-        <v>7140968.604357163</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6391,22 +6391,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111492262</v>
+        <v>111480295</v>
       </c>
       <c r="B53" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6419,21 +6419,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>489875.6449040856</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R53" t="n">
-        <v>7140883.841297399</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6503,22 +6503,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111492283</v>
+        <v>111492268</v>
       </c>
       <c r="B54" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6527,25 +6527,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6555,10 +6555,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>489807.3341186864</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R54" t="n">
-        <v>7140663.839095047</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111492257</v>
+        <v>111480446</v>
       </c>
       <c r="B55" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6639,25 +6639,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6667,10 +6667,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489807.3341186864</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R55" t="n">
-        <v>7140663.839095047</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6727,22 +6727,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111492277</v>
+        <v>111492280</v>
       </c>
       <c r="B56" t="n">
-        <v>73683</v>
+        <v>90351</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6755,21 +6755,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>306</v>
+        <v>4787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>490006.489164856</v>
+        <v>489771.1399207082</v>
       </c>
       <c r="R56" t="n">
-        <v>7140889.468873618</v>
+        <v>7140982.399260296</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111492267</v>
+        <v>111492269</v>
       </c>
       <c r="B57" t="n">
         <v>78578</v>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>490129.0741084609</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R57" t="n">
-        <v>7140751.917492756</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6963,10 +6963,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111492255</v>
+        <v>111492267</v>
       </c>
       <c r="B58" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6979,21 +6979,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489860.3922942375</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R58" t="n">
-        <v>7140725.536366037</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7075,10 +7075,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111492281</v>
+        <v>111480383</v>
       </c>
       <c r="B59" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7087,25 +7087,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7115,10 +7115,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>490000.098590193</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R59" t="n">
-        <v>7140922.37116597</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7175,22 +7175,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111480293</v>
+        <v>111492260</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7203,21 +7203,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>489876.6856929233</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R60" t="n">
-        <v>7140936.621166581</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7287,22 +7287,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111480236</v>
+        <v>111492261</v>
       </c>
       <c r="B61" t="n">
-        <v>89686</v>
+        <v>78579</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7315,21 +7315,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>489743.6066249603</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R61" t="n">
-        <v>7140651.07116806</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7399,22 +7399,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111492261</v>
+        <v>111492254</v>
       </c>
       <c r="B62" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7427,21 +7427,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7451,10 +7451,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>490022.003170063</v>
+        <v>489798.4158412284</v>
       </c>
       <c r="R62" t="n">
-        <v>7140997.579618414</v>
+        <v>7140977.981913811</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7523,10 +7523,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111492282</v>
+        <v>111480296</v>
       </c>
       <c r="B63" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7535,25 +7535,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7563,10 +7563,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>490022.0059880563</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R63" t="n">
-        <v>7140998.444884341</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7623,19 +7623,19 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111480294</v>
+        <v>111492271</v>
       </c>
       <c r="B64" t="n">
         <v>78578</v>
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>489770.4033965064</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R64" t="n">
-        <v>7140891.545973015</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7735,22 +7735,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111480295</v>
+        <v>111492264</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7763,21 +7763,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7787,10 +7787,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>489778.091163906</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R65" t="n">
-        <v>7140858.638525736</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7847,22 +7847,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111480297</v>
+        <v>111480236</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,21 +7875,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>489825.6732306023</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R66" t="n">
-        <v>7140707.046325015</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7971,10 +7971,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111480383</v>
+        <v>111480496</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>85715</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7983,25 +7983,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>510</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>489804.554930158</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R67" t="n">
-        <v>7140739.999929952</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8083,10 +8083,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111492269</v>
+        <v>111480498</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8099,21 +8099,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8123,10 +8123,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>490029.82430114</v>
+        <v>489787.1248523716</v>
       </c>
       <c r="R68" t="n">
-        <v>7141004.908987134</v>
+        <v>7140839.571414692</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8183,22 +8183,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111492280</v>
+        <v>111480395</v>
       </c>
       <c r="B69" t="n">
-        <v>90351</v>
+        <v>89419</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8207,25 +8207,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4787</v>
+        <v>1204</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8235,10 +8235,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489771.1399207082</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R69" t="n">
-        <v>7140982.399260296</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8295,22 +8295,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111492253</v>
+        <v>111492277</v>
       </c>
       <c r="B70" t="n">
-        <v>73696</v>
+        <v>73683</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8319,25 +8319,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6440</v>
+        <v>306</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8347,10 +8347,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>490012.5186072908</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R70" t="n">
-        <v>7140878.632872825</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8419,10 +8419,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111480384</v>
+        <v>111492281</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8431,25 +8431,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8459,10 +8459,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>489794.5838017719</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R71" t="n">
-        <v>7140737.869752969</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8519,22 +8519,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111492278</v>
+        <v>111492262</v>
       </c>
       <c r="B72" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8547,21 +8547,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8571,10 +8571,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>490007.7957919214</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R72" t="n">
-        <v>7141024.449337299</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111492276</v>
+        <v>111480445</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8659,21 +8659,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8683,10 +8683,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>489764.8000431156</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R73" t="n">
-        <v>7140640.615804542</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8743,22 +8743,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111492266</v>
+        <v>111492259</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8771,21 +8771,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8795,10 +8795,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>490044.5119551711</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R74" t="n">
-        <v>7140725.797964292</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111492260</v>
+        <v>111492273</v>
       </c>
       <c r="B75" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8883,21 +8883,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8907,10 +8907,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>490029.82430114</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R75" t="n">
-        <v>7141004.908987134</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8979,10 +8979,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111492268</v>
+        <v>111492257</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8991,25 +8991,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>490139.7872713782</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R76" t="n">
-        <v>7140850.097995443</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9091,10 +9091,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111480291</v>
+        <v>111492255</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9107,21 +9107,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9131,10 +9131,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>490035.394719597</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R77" t="n">
-        <v>7140719.770132355</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9191,19 +9191,19 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111492274</v>
+        <v>111480294</v>
       </c>
       <c r="B78" t="n">
         <v>78578</v>
@@ -9243,10 +9243,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>489910.1009328889</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R78" t="n">
-        <v>7140823.155509771</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9303,22 +9303,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111480446</v>
+        <v>111492276</v>
       </c>
       <c r="B79" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9331,21 +9331,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9355,10 +9355,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>489877.1088730107</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R79" t="n">
-        <v>7140933.591242422</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9415,22 +9415,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111492272</v>
+        <v>111492279</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9443,21 +9443,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9467,10 +9467,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>489915.5371736808</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R80" t="n">
-        <v>7140895.391365884</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9539,10 +9539,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111480496</v>
+        <v>111480423</v>
       </c>
       <c r="B81" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9555,21 +9555,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9579,10 +9579,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>489789.3052706157</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R81" t="n">
-        <v>7140843.89074567</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9651,10 +9651,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492279</v>
+        <v>111492270</v>
       </c>
       <c r="B82" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9667,21 +9667,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9691,10 +9691,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>489883.9159544517</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R82" t="n">
-        <v>7140764.831883652</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9763,10 +9763,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492273</v>
+        <v>111492278</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9779,21 +9779,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9803,10 +9803,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>489874.3581914994</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R83" t="n">
-        <v>7140887.739431102</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9875,10 +9875,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111492270</v>
+        <v>111492282</v>
       </c>
       <c r="B84" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9887,25 +9887,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9987,10 +9987,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480424</v>
+        <v>111492256</v>
       </c>
       <c r="B85" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10003,21 +10003,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>489748.4256788645</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R85" t="n">
-        <v>7140667.064407941</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10087,22 +10087,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492264</v>
+        <v>111480424</v>
       </c>
       <c r="B86" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10115,21 +10115,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10139,10 +10139,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>489910.1009328889</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R86" t="n">
-        <v>7140823.155509771</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10199,22 +10199,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492256</v>
+        <v>111480291</v>
       </c>
       <c r="B87" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10227,21 +10227,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10251,10 +10251,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>490019.4497180494</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R87" t="n">
-        <v>7140878.610287084</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10311,22 +10311,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111480395</v>
+        <v>111492275</v>
       </c>
       <c r="B88" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10339,21 +10339,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10363,10 +10363,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>490032.4114640003</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R88" t="n">
-        <v>7140734.923483816</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10423,22 +10423,22 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480335</v>
+        <v>111480384</v>
       </c>
       <c r="B89" t="n">
-        <v>78612</v>
+        <v>96348</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10447,25 +10447,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10475,10 +10475,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>489776.7843540448</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R89" t="n">
-        <v>7140856.479597869</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10547,10 +10547,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111480423</v>
+        <v>111480298</v>
       </c>
       <c r="B90" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10563,21 +10563,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10587,10 +10587,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>490169.5447032704</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R90" t="n">
-        <v>7140808.466902939</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480296</v>
+        <v>111480293</v>
       </c>
       <c r="B91" t="n">
         <v>78578</v>
@@ -10699,10 +10699,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>489802.401819757</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R91" t="n">
-        <v>7140743.901159636</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10771,10 +10771,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492275</v>
+        <v>111492253</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10787,21 +10787,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10811,10 +10811,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>489806.4619114766</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R92" t="n">
-        <v>7140662.11125663</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10883,10 +10883,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480498</v>
+        <v>111492283</v>
       </c>
       <c r="B93" t="n">
-        <v>85715</v>
+        <v>78611</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10895,25 +10895,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>510</v>
+        <v>6463</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10923,10 +10923,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>489787.1248523716</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R93" t="n">
-        <v>7140839.571414692</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10983,12 +10983,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
@@ -11107,10 +11107,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480087</v>
+        <v>111480184</v>
       </c>
       <c r="B95" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11119,25 +11119,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11147,10 +11147,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>489792.3874608531</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R95" t="n">
-        <v>7140728.790892559</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11219,10 +11219,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480141</v>
+        <v>111480087</v>
       </c>
       <c r="B96" t="n">
-        <v>78605</v>
+        <v>90087</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11235,21 +11235,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6462</v>
+        <v>3298</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11259,10 +11259,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>489770.4033965064</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R96" t="n">
-        <v>7140891.545973015</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11331,10 +11331,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480184</v>
+        <v>111480141</v>
       </c>
       <c r="B97" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11343,25 +11343,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11443,10 +11443,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480210</v>
+        <v>111480185</v>
       </c>
       <c r="B98" t="n">
-        <v>78512</v>
+        <v>78579</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11455,25 +11455,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11483,10 +11483,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>489805.4242373512</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R98" t="n">
-        <v>7140740.862385634</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11555,10 +11555,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480185</v>
+        <v>111480161</v>
       </c>
       <c r="B99" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11567,25 +11567,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11595,10 +11595,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>489776.7843540448</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R99" t="n">
-        <v>7140856.479597869</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11667,7 +11667,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480186</v>
+        <v>111480183</v>
       </c>
       <c r="B100" t="n">
         <v>78579</v>
@@ -11707,10 +11707,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>489758.3970701658</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R100" t="n">
-        <v>7140669.194484891</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11891,10 +11891,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480161</v>
+        <v>111480069</v>
       </c>
       <c r="B102" t="n">
-        <v>96368</v>
+        <v>89405</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11903,25 +11903,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11931,10 +11931,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>490135.9205220507</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R102" t="n">
-        <v>7140860.061565773</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12003,10 +12003,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480069</v>
+        <v>111480186</v>
       </c>
       <c r="B103" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12019,21 +12019,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>489808.3789904107</v>
+        <v>489758.3970701658</v>
       </c>
       <c r="R103" t="n">
-        <v>7140977.94875525</v>
+        <v>7140669.194484891</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12115,10 +12115,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480183</v>
+        <v>111480210</v>
       </c>
       <c r="B104" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12127,25 +12127,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12155,10 +12155,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>490012.5186072908</v>
+        <v>489805.4242373512</v>
       </c>
       <c r="R104" t="n">
-        <v>7140878.632872825</v>
+        <v>7140740.862385634</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111479791</v>
+        <v>111481803</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489746.2870670959</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R2" t="n">
-        <v>7140675.292557321</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111479776</v>
+        <v>111479784</v>
       </c>
       <c r="B3" t="n">
-        <v>96368</v>
+        <v>78612</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489790.1442766788</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R3" t="n">
-        <v>7140835.667408227</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111481803</v>
+        <v>111479791</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489663.3563524204</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R5" t="n">
-        <v>7140749.12648284</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111479767</v>
+        <v>111476441</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>96368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490050.1831033034</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R6" t="n">
-        <v>7140737.894443879</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479763</v>
+        <v>111479776</v>
       </c>
       <c r="B7" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489823.5173122073</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R7" t="n">
-        <v>7140970.976177845</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476429</v>
+        <v>111479768</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489815.4226730386</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R8" t="n">
-        <v>7140751.213293974</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1452,19 +1452,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481810</v>
+        <v>111481809</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489736.1248279089</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R9" t="n">
-        <v>7141004.148289163</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111476428</v>
+        <v>111476422</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489876.9016010665</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R10" t="n">
-        <v>7140870.85750405</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111476452</v>
+        <v>111481800</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,13 +1728,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489815.0024043967</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R11" t="n">
-        <v>7140755.108741223</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1788,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111481808</v>
+        <v>111479772</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489618.6049431616</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R12" t="n">
-        <v>7140966.471951276</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1894,28 +1894,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111481807</v>
+        <v>111479770</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1925,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,13 +1953,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489622.997758265</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R13" t="n">
-        <v>7140856.56393067</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2006,28 +2007,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111476432</v>
+        <v>111479769</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2038,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2066,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489837.4677177655</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R14" t="n">
-        <v>7140736.429197143</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2124,22 +2126,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111481801</v>
+        <v>111479785</v>
       </c>
       <c r="B15" t="n">
-        <v>78605</v>
+        <v>89590</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2150,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6462</v>
+        <v>48</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,13 +2178,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489644.5611277207</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R15" t="n">
-        <v>7140827.935422103</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2236,19 +2238,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111481812</v>
+        <v>111476427</v>
       </c>
       <c r="B16" t="n">
         <v>78578</v>
@@ -2288,13 +2290,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489776.5506159168</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R16" t="n">
-        <v>7140656.585996962</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2348,22 +2350,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111481804</v>
+        <v>111476452</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2374,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,13 +2402,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489649.3234224396</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R17" t="n">
-        <v>7140827.054006468</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2460,22 +2462,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111481799</v>
+        <v>111479775</v>
       </c>
       <c r="B18" t="n">
-        <v>90087</v>
+        <v>78605</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2490,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3298</v>
+        <v>6462</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,13 +2514,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489701.4212471162</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R18" t="n">
-        <v>7140989.555053207</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2572,22 +2574,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481809</v>
+        <v>111476432</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,25 +2598,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,13 +2626,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489716.1870822187</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R19" t="n">
-        <v>7141000.754049809</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2684,22 +2686,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111481805</v>
+        <v>111476439</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2708,25 +2710,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2736,13 +2738,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489644.1308507675</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R20" t="n">
-        <v>7140828.802200046</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2796,22 +2798,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476434</v>
+        <v>111476429</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2824,21 +2826,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2848,10 +2850,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490140.7149260837</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R21" t="n">
-        <v>7140869.131914983</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2920,10 +2922,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111479784</v>
+        <v>111476445</v>
       </c>
       <c r="B22" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2934,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,10 +2962,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489806.0819462601</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R22" t="n">
-        <v>7140678.121827234</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3020,22 +3022,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111479764</v>
+        <v>111481810</v>
       </c>
       <c r="B23" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3048,21 +3050,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3072,13 +3074,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489825.6631737759</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R23" t="n">
-        <v>7140704.017605744</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3132,22 +3134,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111479768</v>
+        <v>111481816</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3160,21 +3162,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489784.979046855</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R24" t="n">
-        <v>7140845.63580357</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3244,19 +3246,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111479780</v>
+        <v>111481805</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3296,13 +3298,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489832.05664893</v>
+        <v>489644.1308507675</v>
       </c>
       <c r="R25" t="n">
-        <v>7140672.410641763</v>
+        <v>7140828.802200046</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3356,22 +3358,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111476426</v>
+        <v>111479767</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3384,21 +3386,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3410,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490023.2829794704</v>
+        <v>490050.1831033034</v>
       </c>
       <c r="R26" t="n">
-        <v>7140991.518518048</v>
+        <v>7140737.894443879</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3468,22 +3470,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111481815</v>
+        <v>111476453</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3496,21 +3498,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,13 +3522,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489677.1923899396</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R27" t="n">
-        <v>7140998.289362041</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3580,22 +3582,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481802</v>
+        <v>111479763</v>
       </c>
       <c r="B28" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3608,21 +3610,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,13 +3634,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489735.2410806222</v>
+        <v>489823.5173122073</v>
       </c>
       <c r="R28" t="n">
-        <v>7140998.959601722</v>
+        <v>7140970.976177845</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3692,22 +3694,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111476422</v>
+        <v>111476446</v>
       </c>
       <c r="B29" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3720,21 +3722,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3744,10 +3746,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490176.9771446643</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R29" t="n">
-        <v>7140829.643533329</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3816,10 +3818,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111479781</v>
+        <v>111476431</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3828,25 +3830,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3858,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489808.2480602256</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R30" t="n">
-        <v>7140678.114621677</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3916,22 +3918,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111479769</v>
+        <v>111481807</v>
       </c>
       <c r="B31" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3944,21 +3946,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3968,13 +3970,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489821.4272813612</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R31" t="n">
-        <v>7140733.021041368</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4028,22 +4030,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111476450</v>
+        <v>111481814</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4052,49 +4054,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489998.828683018</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R32" t="n">
-        <v>7140931.460910414</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4142,29 +4136,28 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111476439</v>
+        <v>111481815</v>
       </c>
       <c r="B33" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4173,25 +4166,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4201,13 +4194,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489778.5245607619</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R33" t="n">
-        <v>7140728.837106518</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4261,19 +4254,19 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111476445</v>
+        <v>111481812</v>
       </c>
       <c r="B34" t="n">
         <v>78578</v>
@@ -4313,13 +4306,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490173.9669357104</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R34" t="n">
-        <v>7140836.575755515</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4373,22 +4366,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111476447</v>
+        <v>111481802</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4401,21 +4394,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4425,13 +4418,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489901.6080066679</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R35" t="n">
-        <v>7140875.102526958</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4485,22 +4478,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111476421</v>
+        <v>111476448</v>
       </c>
       <c r="B36" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4509,25 +4502,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4537,10 +4530,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489865.878933667</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R36" t="n">
-        <v>7140943.579226637</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4609,10 +4602,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111481813</v>
+        <v>111479764</v>
       </c>
       <c r="B37" t="n">
-        <v>78612</v>
+        <v>73696</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4621,25 +4614,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4649,13 +4642,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489665.5194976524</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R37" t="n">
-        <v>7140748.253840107</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4709,22 +4702,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111481814</v>
+        <v>111479788</v>
       </c>
       <c r="B38" t="n">
-        <v>78612</v>
+        <v>89419</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4733,25 +4726,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6464</v>
+        <v>1204</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4761,13 +4754,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489733.9516960242</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R38" t="n">
-        <v>7141001.992384473</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4821,22 +4814,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111479788</v>
+        <v>111481801</v>
       </c>
       <c r="B39" t="n">
-        <v>89419</v>
+        <v>78605</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4845,25 +4838,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1204</v>
+        <v>6462</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4873,13 +4866,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489770.4450087619</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R39" t="n">
-        <v>7140644.491144991</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4933,22 +4926,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111479785</v>
+        <v>111481811</v>
       </c>
       <c r="B40" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4957,25 +4950,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4985,13 +4978,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489747.1332446564</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R40" t="n">
-        <v>7140669.232153737</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5045,22 +5038,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111479775</v>
+        <v>111481799</v>
       </c>
       <c r="B41" t="n">
-        <v>78605</v>
+        <v>90087</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5073,21 +5066,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6462</v>
+        <v>3298</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5097,13 +5090,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489737.5515961287</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R41" t="n">
-        <v>7140654.120246909</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5157,22 +5150,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481816</v>
+        <v>111481804</v>
       </c>
       <c r="B42" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5185,21 +5178,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5209,10 +5202,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489798.9642616356</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R42" t="n">
-        <v>7141012.591141199</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5281,7 +5274,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111481811</v>
+        <v>111481808</v>
       </c>
       <c r="B43" t="n">
         <v>78578</v>
@@ -5321,10 +5314,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489798.9642616356</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R43" t="n">
-        <v>7141012.591141199</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5393,10 +5386,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111481798</v>
+        <v>111479781</v>
       </c>
       <c r="B44" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5405,25 +5398,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5433,13 +5426,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489695.5635774976</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R44" t="n">
-        <v>7140664.64561378</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5493,22 +5486,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481800</v>
+        <v>111481813</v>
       </c>
       <c r="B45" t="n">
-        <v>90087</v>
+        <v>78612</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5521,21 +5514,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3298</v>
+        <v>6464</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5545,10 +5538,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489821.9038792807</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R45" t="n">
-        <v>7141006.890577544</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5617,7 +5610,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111479772</v>
+        <v>111481798</v>
       </c>
       <c r="B46" t="n">
         <v>90087</v>
@@ -5657,13 +5650,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489831.4084576743</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R46" t="n">
-        <v>7140738.179997628</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5711,29 +5704,28 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479770</v>
+        <v>111479780</v>
       </c>
       <c r="B47" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5734,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5762,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489808.3171113685</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R47" t="n">
-        <v>7140829.11698899</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5824,7 +5816,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5843,10 +5834,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111492274</v>
+        <v>111480383</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5855,25 +5846,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5883,10 +5874,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>489910.1009328889</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R48" t="n">
-        <v>7140823.155509771</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5943,22 +5934,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111492266</v>
+        <v>111480445</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5971,21 +5962,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5995,10 +5986,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490044.5119551711</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R49" t="n">
-        <v>7140725.797964292</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6055,22 +6046,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111492272</v>
+        <v>111492261</v>
       </c>
       <c r="B50" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6083,21 +6074,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6107,10 +6098,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>489915.5371736808</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R50" t="n">
-        <v>7140895.391365884</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6179,10 +6170,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111480297</v>
+        <v>111480498</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6195,21 +6186,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6219,10 +6210,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>489825.6732306023</v>
+        <v>489787.1248523716</v>
       </c>
       <c r="R51" t="n">
-        <v>7140707.046325015</v>
+        <v>7140839.571414692</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6291,10 +6282,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111480335</v>
+        <v>111480295</v>
       </c>
       <c r="B52" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6303,25 +6294,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6331,10 +6322,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489776.7843540448</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R52" t="n">
-        <v>7140856.479597869</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6403,10 +6394,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111480295</v>
+        <v>111492259</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6419,21 +6410,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6443,10 +6434,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>489778.091163906</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R53" t="n">
-        <v>7140858.638525736</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6503,22 +6494,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111492268</v>
+        <v>111480496</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6531,21 +6522,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6555,10 +6546,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490139.7872713782</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R54" t="n">
-        <v>7140850.097995443</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6615,22 +6606,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111480446</v>
+        <v>111492274</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6643,21 +6634,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6667,10 +6658,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489877.1088730107</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R55" t="n">
-        <v>7140933.591242422</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6727,12 +6718,12 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
@@ -6851,10 +6842,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111492269</v>
+        <v>111492278</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6867,21 +6858,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6891,10 +6882,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>490029.82430114</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R57" t="n">
-        <v>7141004.908987134</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6963,10 +6954,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111492267</v>
+        <v>111492254</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6979,21 +6970,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7003,10 +6994,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>490129.0741084609</v>
+        <v>489798.4158412284</v>
       </c>
       <c r="R58" t="n">
-        <v>7140751.917492756</v>
+        <v>7140977.981913811</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7075,10 +7066,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111480383</v>
+        <v>111492279</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7087,25 +7078,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7115,10 +7106,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>489804.554930158</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R59" t="n">
-        <v>7140739.999929952</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7175,22 +7166,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111492260</v>
+        <v>111480236</v>
       </c>
       <c r="B60" t="n">
-        <v>78579</v>
+        <v>89686</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7203,21 +7194,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7227,10 +7218,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>490029.82430114</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R60" t="n">
-        <v>7141004.908987134</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7287,22 +7278,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111492261</v>
+        <v>111480293</v>
       </c>
       <c r="B61" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7315,21 +7306,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7339,10 +7330,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>490022.003170063</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R61" t="n">
-        <v>7140997.579618414</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7399,22 +7390,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111492254</v>
+        <v>111480294</v>
       </c>
       <c r="B62" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7427,21 +7418,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7451,10 +7442,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>489798.4158412284</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R62" t="n">
-        <v>7140977.981913811</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7511,19 +7502,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111480296</v>
+        <v>111492271</v>
       </c>
       <c r="B63" t="n">
         <v>78578</v>
@@ -7563,10 +7554,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>489802.401819757</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R63" t="n">
-        <v>7140743.901159636</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7623,22 +7614,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111492271</v>
+        <v>111492282</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7647,25 +7638,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7675,10 +7666,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>490018.4433133323</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R64" t="n">
-        <v>7140968.604357163</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7747,10 +7738,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111492264</v>
+        <v>111492255</v>
       </c>
       <c r="B65" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7763,21 +7754,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7787,10 +7778,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>489910.1009328889</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R65" t="n">
-        <v>7140823.155509771</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7859,10 +7850,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111480236</v>
+        <v>111492268</v>
       </c>
       <c r="B66" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7875,21 +7866,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7899,10 +7890,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>489743.6066249603</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R66" t="n">
-        <v>7140651.07116806</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7959,22 +7950,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111480496</v>
+        <v>111480335</v>
       </c>
       <c r="B67" t="n">
-        <v>85715</v>
+        <v>78612</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7983,25 +7974,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>510</v>
+        <v>6464</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8011,10 +8002,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>489789.3052706157</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R67" t="n">
-        <v>7140843.89074567</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8083,10 +8074,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111480498</v>
+        <v>111480424</v>
       </c>
       <c r="B68" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8099,21 +8090,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8123,10 +8114,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489787.1248523716</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R68" t="n">
-        <v>7140839.571414692</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8195,10 +8186,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111480395</v>
+        <v>111492266</v>
       </c>
       <c r="B69" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8211,21 +8202,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8235,10 +8226,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>490032.4114640003</v>
+        <v>490044.5119551711</v>
       </c>
       <c r="R69" t="n">
-        <v>7140734.923483816</v>
+        <v>7140725.797964292</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8295,22 +8286,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111492277</v>
+        <v>111492269</v>
       </c>
       <c r="B70" t="n">
-        <v>73683</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8319,25 +8310,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>306</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8347,10 +8338,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>490006.489164856</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R70" t="n">
-        <v>7140889.468873618</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8419,10 +8410,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111492281</v>
+        <v>111492283</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8431,20 +8422,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8459,10 +8450,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>490000.098590193</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R71" t="n">
-        <v>7140922.37116597</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8531,10 +8522,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111492262</v>
+        <v>111480291</v>
       </c>
       <c r="B72" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8547,21 +8538,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8571,10 +8562,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>489875.6449040856</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R72" t="n">
-        <v>7140883.841297399</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8631,22 +8622,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111480445</v>
+        <v>111480395</v>
       </c>
       <c r="B73" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8659,21 +8650,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8683,10 +8674,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>490117.731828619</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R73" t="n">
-        <v>7140861.85080409</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8755,10 +8746,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111492259</v>
+        <v>111480446</v>
       </c>
       <c r="B74" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8771,21 +8762,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8795,10 +8786,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>490044.5091435921</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R74" t="n">
-        <v>7140724.932621562</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8855,19 +8846,19 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111492273</v>
+        <v>111492270</v>
       </c>
       <c r="B75" t="n">
         <v>78578</v>
@@ -8907,10 +8898,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>489874.3581914994</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R75" t="n">
-        <v>7140887.739431102</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8979,10 +8970,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111492257</v>
+        <v>111492273</v>
       </c>
       <c r="B76" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8991,25 +8982,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9019,10 +9010,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>489807.3341186864</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R76" t="n">
-        <v>7140663.839095047</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9091,10 +9082,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111492255</v>
+        <v>111492276</v>
       </c>
       <c r="B77" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9107,21 +9098,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9131,10 +9122,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>489860.3922942375</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R77" t="n">
-        <v>7140725.536366037</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9203,10 +9194,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111480294</v>
+        <v>111492256</v>
       </c>
       <c r="B78" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9219,21 +9210,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9243,10 +9234,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>489770.4033965064</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R78" t="n">
-        <v>7140891.545973015</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9303,22 +9294,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111492276</v>
+        <v>111492262</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9331,21 +9322,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9355,10 +9346,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>489764.8000431156</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R79" t="n">
-        <v>7140640.615804542</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9427,10 +9418,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111492279</v>
+        <v>111480297</v>
       </c>
       <c r="B80" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9443,21 +9434,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9467,10 +9458,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>489883.9159544517</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R80" t="n">
-        <v>7140764.831883652</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9527,22 +9518,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111480423</v>
+        <v>111492253</v>
       </c>
       <c r="B81" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9555,21 +9546,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9579,10 +9570,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>490169.5447032704</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R81" t="n">
-        <v>7140808.466902939</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9639,22 +9630,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492270</v>
+        <v>111492264</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9667,21 +9658,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9691,10 +9682,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>490022.0059880563</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R82" t="n">
-        <v>7140998.444884341</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9763,10 +9754,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492278</v>
+        <v>111492272</v>
       </c>
       <c r="B83" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9779,21 +9770,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9803,10 +9794,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>490007.7957919214</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R83" t="n">
-        <v>7141024.449337299</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9875,10 +9866,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111492282</v>
+        <v>111480384</v>
       </c>
       <c r="B84" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9887,25 +9878,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9915,10 +9906,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>490022.0059880563</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R84" t="n">
-        <v>7140998.444884341</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9975,22 +9966,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492256</v>
+        <v>111480423</v>
       </c>
       <c r="B85" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10003,21 +9994,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10027,10 +10018,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>490019.4497180494</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R85" t="n">
-        <v>7140878.610287084</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10087,22 +10078,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480424</v>
+        <v>111480296</v>
       </c>
       <c r="B86" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10115,21 +10106,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10139,10 +10130,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>489748.4256788645</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R86" t="n">
-        <v>7140667.064407941</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10211,10 +10202,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480291</v>
+        <v>111492277</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>73683</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10223,25 +10214,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>306</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10251,10 +10242,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>490035.394719597</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R87" t="n">
-        <v>7140719.770132355</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10311,22 +10302,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492275</v>
+        <v>111492260</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10339,21 +10330,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10363,10 +10354,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>489806.4619114766</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R88" t="n">
-        <v>7140662.11125663</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10435,10 +10426,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111480384</v>
+        <v>111492281</v>
       </c>
       <c r="B89" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10447,25 +10438,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10475,10 +10466,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>489794.5838017719</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R89" t="n">
-        <v>7140737.869752969</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10535,19 +10526,19 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111480298</v>
+        <v>111492275</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -10587,10 +10578,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>489766.2095541009</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R90" t="n">
-        <v>7140673.495220769</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10647,19 +10638,19 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480293</v>
+        <v>111492267</v>
       </c>
       <c r="B91" t="n">
         <v>78578</v>
@@ -10699,10 +10690,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>489876.6856929233</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R91" t="n">
-        <v>7140936.621166581</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10759,22 +10750,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492253</v>
+        <v>111492257</v>
       </c>
       <c r="B92" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10783,25 +10774,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10811,10 +10802,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>490012.5186072908</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R92" t="n">
-        <v>7140878.632872825</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10883,10 +10874,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111492283</v>
+        <v>111480298</v>
       </c>
       <c r="B93" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10895,25 +10886,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10923,10 +10914,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>489807.3341186864</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R93" t="n">
-        <v>7140663.839095047</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10983,22 +10974,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480043</v>
+        <v>111480161</v>
       </c>
       <c r="B94" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11007,25 +10998,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11035,10 +11026,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>489811.4112532215</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R94" t="n">
-        <v>7140977.938669946</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11107,7 +11098,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480184</v>
+        <v>111480183</v>
       </c>
       <c r="B95" t="n">
         <v>78579</v>
@@ -11147,10 +11138,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>489770.4033965064</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R95" t="n">
-        <v>7140891.545973015</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11219,10 +11210,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480087</v>
+        <v>111480184</v>
       </c>
       <c r="B96" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11231,25 +11222,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11259,10 +11250,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>489792.3874608531</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R96" t="n">
-        <v>7140728.790892559</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11331,10 +11322,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480141</v>
+        <v>111480043</v>
       </c>
       <c r="B97" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11343,25 +11334,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11371,10 +11362,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>489770.4033965064</v>
+        <v>489811.4112532215</v>
       </c>
       <c r="R97" t="n">
-        <v>7140891.545973015</v>
+        <v>7140977.938669946</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11443,10 +11434,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480185</v>
+        <v>111480210</v>
       </c>
       <c r="B98" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11455,25 +11446,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11483,10 +11474,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>489776.7843540448</v>
+        <v>489805.4242373512</v>
       </c>
       <c r="R98" t="n">
-        <v>7140856.479597869</v>
+        <v>7140740.862385634</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11555,10 +11546,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480161</v>
+        <v>111480069</v>
       </c>
       <c r="B99" t="n">
-        <v>96368</v>
+        <v>89405</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11567,25 +11558,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11595,10 +11586,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>490135.9205220507</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R99" t="n">
-        <v>7140860.061565773</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11667,7 +11658,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480183</v>
+        <v>111480185</v>
       </c>
       <c r="B100" t="n">
         <v>78579</v>
@@ -11707,10 +11698,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>490012.5186072908</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R100" t="n">
-        <v>7140878.632872825</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11779,10 +11770,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480072</v>
+        <v>111480186</v>
       </c>
       <c r="B101" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11795,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11819,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>489781.8762993646</v>
+        <v>489758.3970701658</v>
       </c>
       <c r="R101" t="n">
-        <v>7140694.644355448</v>
+        <v>7140669.194484891</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11891,10 +11882,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480069</v>
+        <v>111480087</v>
       </c>
       <c r="B102" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11903,25 +11894,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11931,10 +11922,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>489808.3789904107</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R102" t="n">
-        <v>7140977.94875525</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12003,10 +11994,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480186</v>
+        <v>111480072</v>
       </c>
       <c r="B103" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12019,21 +12010,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12043,10 +12034,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>489758.3970701658</v>
+        <v>489781.8762993646</v>
       </c>
       <c r="R103" t="n">
-        <v>7140669.194484891</v>
+        <v>7140694.644355448</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12115,10 +12106,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480210</v>
+        <v>111480141</v>
       </c>
       <c r="B104" t="n">
-        <v>78512</v>
+        <v>78605</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12131,21 +12122,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6456</v>
+        <v>6462</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12155,10 +12146,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>489805.4242373512</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R104" t="n">
-        <v>7140740.862385634</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111481803</v>
+        <v>111476453</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489663.3563524204</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R2" t="n">
-        <v>7140749.12648284</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111479784</v>
+        <v>111476429</v>
       </c>
       <c r="B3" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489806.0819462601</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R3" t="n">
-        <v>7140678.121827234</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111479792</v>
+        <v>111481798</v>
       </c>
       <c r="B4" t="n">
-        <v>78611</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6463</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489806.0675517298</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R4" t="n">
-        <v>7140673.795043741</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111479791</v>
+        <v>111481801</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489746.2870670959</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R5" t="n">
-        <v>7140675.292557321</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476441</v>
+        <v>111476448</v>
       </c>
       <c r="B6" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489865.878933667</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R6" t="n">
-        <v>7140943.579226637</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479776</v>
+        <v>111476432</v>
       </c>
       <c r="B7" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489790.1442766788</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R7" t="n">
-        <v>7140835.667408227</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111479768</v>
+        <v>111481802</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489784.979046855</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R8" t="n">
-        <v>7140845.63580357</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481809</v>
+        <v>111481815</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489716.1870822187</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R9" t="n">
-        <v>7141000.754049809</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111476422</v>
+        <v>111479764</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490176.9771446643</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R10" t="n">
-        <v>7140829.643533329</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1676,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111481800</v>
+        <v>111479780</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,13 +1728,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489821.9038792807</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R11" t="n">
-        <v>7141006.890577544</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1788,22 +1788,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111479772</v>
+        <v>111479791</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489831.4084576743</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R12" t="n">
-        <v>7140738.179997628</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1894,7 +1894,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1913,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111479770</v>
+        <v>111481813</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>78612</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>6464</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1953,13 +1952,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489808.3171113685</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R13" t="n">
-        <v>7140829.11698899</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2007,26 +2006,25 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479769</v>
+        <v>111479768</v>
       </c>
       <c r="B14" t="n">
         <v>89405</v>
@@ -2066,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489821.4272813612</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R14" t="n">
-        <v>7140733.021041368</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2138,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479785</v>
+        <v>111476445</v>
       </c>
       <c r="B15" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2150,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2178,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489747.1332446564</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R15" t="n">
-        <v>7140669.232153737</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2238,22 +2236,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111476427</v>
+        <v>111476418</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2262,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2290,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489901.6080066679</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R16" t="n">
-        <v>7140875.102526958</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2362,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111476452</v>
+        <v>111479763</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2374,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2402,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489815.0024043967</v>
+        <v>489823.5173122073</v>
       </c>
       <c r="R17" t="n">
-        <v>7140755.108741223</v>
+        <v>7140970.976177845</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2462,22 +2460,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111479775</v>
+        <v>111481804</v>
       </c>
       <c r="B18" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2486,25 +2484,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2514,13 +2512,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489737.5515961287</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R18" t="n">
-        <v>7140654.120246909</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2574,22 +2572,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111476432</v>
+        <v>111481808</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2598,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2626,13 +2624,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489837.4677177655</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R19" t="n">
-        <v>7140736.429197143</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2686,22 +2684,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111476439</v>
+        <v>111481812</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2710,25 +2708,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2738,13 +2736,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489778.5245607619</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R20" t="n">
-        <v>7140728.837106518</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2798,19 +2796,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476429</v>
+        <v>111481810</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2850,13 +2848,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489815.4226730386</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R21" t="n">
-        <v>7140751.213293974</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2910,22 +2908,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111476445</v>
+        <v>111479785</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2934,25 +2932,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2962,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>490173.9669357104</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R22" t="n">
-        <v>7140836.575755515</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3022,22 +3020,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481810</v>
+        <v>111481800</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3046,25 +3044,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3074,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489736.1248279089</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R23" t="n">
-        <v>7141004.148289163</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3146,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481816</v>
+        <v>111476441</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3158,25 +3156,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3186,13 +3184,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489798.9642616356</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R24" t="n">
-        <v>7141012.591141199</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3246,19 +3244,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111481805</v>
+        <v>111476426</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3298,13 +3296,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489644.1308507675</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R25" t="n">
-        <v>7140828.802200046</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3358,22 +3356,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111479767</v>
+        <v>111476431</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3382,25 +3380,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3410,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490050.1831033034</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R26" t="n">
-        <v>7140737.894443879</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3470,22 +3468,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111476453</v>
+        <v>111481816</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3498,21 +3496,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3522,13 +3520,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>490140.7149260837</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R27" t="n">
-        <v>7140869.131914983</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3582,22 +3580,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111479763</v>
+        <v>111481803</v>
       </c>
       <c r="B28" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3610,21 +3608,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3634,13 +3632,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489823.5173122073</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R28" t="n">
-        <v>7140970.976177845</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3694,22 +3692,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111476446</v>
+        <v>111481814</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3718,25 +3716,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3746,13 +3744,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>490023.2829794704</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R29" t="n">
-        <v>7140991.518518048</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3806,22 +3804,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111476431</v>
+        <v>111481811</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3830,25 +3828,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3858,13 +3856,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489998.828683018</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R30" t="n">
-        <v>7140931.460910414</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3918,22 +3916,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111481807</v>
+        <v>111476433</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3942,25 +3940,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3970,13 +3968,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489622.997758265</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R31" t="n">
-        <v>7140856.56393067</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4030,22 +4028,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111481814</v>
+        <v>111476447</v>
       </c>
       <c r="B32" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4054,25 +4052,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4082,13 +4080,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489733.9516960242</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R32" t="n">
-        <v>7141001.992384473</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4142,22 +4140,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111481815</v>
+        <v>111479781</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4170,21 +4168,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4194,13 +4192,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489677.1923899396</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R33" t="n">
-        <v>7140998.289362041</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4254,22 +4252,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111481812</v>
+        <v>111476422</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4282,21 +4280,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4306,13 +4304,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489776.5506159168</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R34" t="n">
-        <v>7140656.585996962</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4366,22 +4364,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111481802</v>
+        <v>111481805</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4394,21 +4392,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4418,10 +4416,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489735.2410806222</v>
+        <v>489644.1308507675</v>
       </c>
       <c r="R35" t="n">
-        <v>7140998.959601722</v>
+        <v>7140828.802200046</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4490,10 +4488,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111476448</v>
+        <v>111479770</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4502,25 +4500,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4530,10 +4528,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489876.9016010665</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R36" t="n">
-        <v>7140870.85750405</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4584,28 +4582,29 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111479764</v>
+        <v>111479776</v>
       </c>
       <c r="B37" t="n">
-        <v>73696</v>
+        <v>96368</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4614,25 +4613,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6440</v>
+        <v>221952</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4642,10 +4641,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489825.6631737759</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R37" t="n">
-        <v>7140704.017605744</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4714,10 +4713,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111479788</v>
+        <v>111479772</v>
       </c>
       <c r="B38" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4726,25 +4725,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4754,10 +4753,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489770.4450087619</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R38" t="n">
-        <v>7140644.491144991</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4808,6 +4807,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -4826,10 +4826,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111481801</v>
+        <v>111479792</v>
       </c>
       <c r="B39" t="n">
-        <v>78605</v>
+        <v>78611</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4842,21 +4842,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4866,13 +4866,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489644.5611277207</v>
+        <v>489806.0675517298</v>
       </c>
       <c r="R39" t="n">
-        <v>7140827.935422103</v>
+        <v>7140673.795043741</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4926,19 +4926,19 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111481811</v>
+        <v>111481807</v>
       </c>
       <c r="B40" t="n">
         <v>78578</v>
@@ -4978,10 +4978,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489798.9642616356</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R40" t="n">
-        <v>7141012.591141199</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111481799</v>
+        <v>111479767</v>
       </c>
       <c r="B41" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5062,25 +5062,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5090,13 +5090,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489701.4212471162</v>
+        <v>490050.1831033034</v>
       </c>
       <c r="R41" t="n">
-        <v>7140989.555053207</v>
+        <v>7140737.894443879</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5150,22 +5150,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481804</v>
+        <v>111481799</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5174,25 +5174,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489649.3234224396</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R42" t="n">
-        <v>7140827.054006468</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111481808</v>
+        <v>111481809</v>
       </c>
       <c r="B43" t="n">
         <v>78578</v>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489618.6049431616</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R43" t="n">
-        <v>7140966.471951276</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111479781</v>
+        <v>111479775</v>
       </c>
       <c r="B44" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5398,25 +5398,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489808.2480602256</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R44" t="n">
-        <v>7140678.114621677</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481813</v>
+        <v>111479784</v>
       </c>
       <c r="B45" t="n">
         <v>78612</v>
@@ -5538,13 +5538,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489665.5194976524</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R45" t="n">
-        <v>7140748.253840107</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5598,22 +5598,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481798</v>
+        <v>111479769</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5622,25 +5622,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5650,13 +5650,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489695.5635774976</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R46" t="n">
-        <v>7140664.64561378</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5710,22 +5710,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479780</v>
+        <v>111479788</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5738,21 +5738,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489832.05664893</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R47" t="n">
-        <v>7140672.410641763</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5834,10 +5834,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111480383</v>
+        <v>111492266</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5846,25 +5846,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5874,10 +5874,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>489804.554930158</v>
+        <v>490044.5119551711</v>
       </c>
       <c r="R48" t="n">
-        <v>7140739.999929952</v>
+        <v>7140725.797964292</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5934,22 +5934,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111480445</v>
+        <v>111492269</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5962,21 +5962,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5986,10 +5986,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490117.731828619</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R49" t="n">
-        <v>7140861.85080409</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6046,22 +6046,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111492261</v>
+        <v>111480294</v>
       </c>
       <c r="B50" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6074,21 +6074,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6098,10 +6098,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>490022.003170063</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R50" t="n">
-        <v>7140997.579618414</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6158,22 +6158,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111480498</v>
+        <v>111492277</v>
       </c>
       <c r="B51" t="n">
-        <v>85715</v>
+        <v>73683</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6182,25 +6182,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>510</v>
+        <v>306</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>489787.1248523716</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R51" t="n">
-        <v>7140839.571414692</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6270,22 +6270,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111480295</v>
+        <v>111492279</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6298,21 +6298,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6322,10 +6322,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489778.091163906</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R52" t="n">
-        <v>7140858.638525736</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6382,22 +6382,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111492259</v>
+        <v>111492256</v>
       </c>
       <c r="B53" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6410,21 +6410,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>490044.5091435921</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R53" t="n">
-        <v>7140724.932621562</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6506,10 +6506,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111480496</v>
+        <v>111492259</v>
       </c>
       <c r="B54" t="n">
-        <v>85715</v>
+        <v>78579</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6522,21 +6522,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>510</v>
+        <v>2081</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>489789.3052706157</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R54" t="n">
-        <v>7140843.89074567</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6606,22 +6606,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111492274</v>
+        <v>111480424</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6634,21 +6634,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6658,10 +6658,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489910.1009328889</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R55" t="n">
-        <v>7140823.155509771</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6718,22 +6718,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111492280</v>
+        <v>111480395</v>
       </c>
       <c r="B56" t="n">
-        <v>90351</v>
+        <v>89419</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6742,25 +6742,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4787</v>
+        <v>1204</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6770,10 +6770,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>489771.1399207082</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R56" t="n">
-        <v>7140982.399260296</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6830,22 +6830,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111492278</v>
+        <v>111492274</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6858,21 +6858,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6882,10 +6882,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>490007.7957919214</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R57" t="n">
-        <v>7141024.449337299</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6954,10 +6954,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111492254</v>
+        <v>111480296</v>
       </c>
       <c r="B58" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6970,21 +6970,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489798.4158412284</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R58" t="n">
-        <v>7140977.981913811</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7054,22 +7054,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111492279</v>
+        <v>111480297</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7082,21 +7082,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7106,10 +7106,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>489883.9159544517</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R59" t="n">
-        <v>7140764.831883652</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7166,22 +7166,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111480236</v>
+        <v>111480498</v>
       </c>
       <c r="B60" t="n">
-        <v>89686</v>
+        <v>85715</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7194,21 +7194,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>658</v>
+        <v>510</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7218,10 +7218,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>489743.6066249603</v>
+        <v>489787.1248523716</v>
       </c>
       <c r="R60" t="n">
-        <v>7140651.07116806</v>
+        <v>7140839.571414692</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7290,10 +7290,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111480293</v>
+        <v>111492280</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>90351</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7302,25 +7302,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>4787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>489876.6856929233</v>
+        <v>489771.1399207082</v>
       </c>
       <c r="R61" t="n">
-        <v>7140936.621166581</v>
+        <v>7140982.399260296</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7390,22 +7390,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111480294</v>
+        <v>111480496</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7418,21 +7418,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7442,10 +7442,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>489770.4033965064</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R62" t="n">
-        <v>7140891.545973015</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7514,10 +7514,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111492271</v>
+        <v>111492278</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7530,21 +7530,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7554,10 +7554,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>490018.4433133323</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R63" t="n">
-        <v>7140968.604357163</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7626,10 +7626,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111492282</v>
+        <v>111492260</v>
       </c>
       <c r="B64" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7638,25 +7638,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7666,10 +7666,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>490022.0059880563</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R64" t="n">
-        <v>7140998.444884341</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111492255</v>
+        <v>111492283</v>
       </c>
       <c r="B65" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7750,25 +7750,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7778,10 +7778,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>489860.3922942375</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R65" t="n">
-        <v>7140725.536366037</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111492268</v>
+        <v>111492275</v>
       </c>
       <c r="B66" t="n">
         <v>78578</v>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>490139.7872713782</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R66" t="n">
-        <v>7140850.097995443</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7962,10 +7962,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111480335</v>
+        <v>111492270</v>
       </c>
       <c r="B67" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7974,25 +7974,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>489776.7843540448</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R67" t="n">
-        <v>7140856.479597869</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8062,22 +8062,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111480424</v>
+        <v>111492276</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8090,21 +8090,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8114,10 +8114,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489748.4256788645</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R68" t="n">
-        <v>7140667.064407941</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8174,22 +8174,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111492266</v>
+        <v>111492257</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8198,25 +8198,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8226,10 +8226,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>490044.5119551711</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R69" t="n">
-        <v>7140725.797964292</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8298,10 +8298,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111492269</v>
+        <v>111480446</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8314,21 +8314,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8338,10 +8338,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>490029.82430114</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R70" t="n">
-        <v>7141004.908987134</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8398,22 +8398,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111492283</v>
+        <v>111480291</v>
       </c>
       <c r="B71" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8422,25 +8422,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8450,10 +8450,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>489807.3341186864</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R71" t="n">
-        <v>7140663.839095047</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8510,19 +8510,19 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111480291</v>
+        <v>111480293</v>
       </c>
       <c r="B72" t="n">
         <v>78578</v>
@@ -8562,10 +8562,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>490035.394719597</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R72" t="n">
-        <v>7140719.770132355</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8634,10 +8634,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111480395</v>
+        <v>111492264</v>
       </c>
       <c r="B73" t="n">
-        <v>89419</v>
+        <v>78579</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8650,21 +8650,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8674,10 +8674,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>490032.4114640003</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R73" t="n">
-        <v>7140734.923483816</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8734,22 +8734,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111480446</v>
+        <v>111492272</v>
       </c>
       <c r="B74" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8762,21 +8762,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>489877.1088730107</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R74" t="n">
-        <v>7140933.591242422</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8846,22 +8846,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111492270</v>
+        <v>111480384</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8870,25 +8870,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8898,10 +8898,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>490022.0059880563</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R75" t="n">
-        <v>7140998.444884341</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8958,19 +8958,19 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111492273</v>
+        <v>111480295</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9010,10 +9010,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>489874.3581914994</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R76" t="n">
-        <v>7140887.739431102</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9070,19 +9070,19 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111492276</v>
+        <v>111492273</v>
       </c>
       <c r="B77" t="n">
         <v>78578</v>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>489764.8000431156</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R77" t="n">
-        <v>7140640.615804542</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111492256</v>
+        <v>111492255</v>
       </c>
       <c r="B78" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9210,21 +9210,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9234,10 +9234,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>490019.4497180494</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R78" t="n">
-        <v>7140878.610287084</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111492262</v>
+        <v>111492261</v>
       </c>
       <c r="B79" t="n">
         <v>78579</v>
@@ -9346,10 +9346,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>489875.6449040856</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R79" t="n">
-        <v>7140883.841297399</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9418,10 +9418,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111480297</v>
+        <v>111492262</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9434,21 +9434,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9458,10 +9458,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>489825.6732306023</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R80" t="n">
-        <v>7140707.046325015</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9518,22 +9518,22 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111492253</v>
+        <v>111480236</v>
       </c>
       <c r="B81" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9546,21 +9546,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9570,10 +9570,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>490012.5186072908</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R81" t="n">
-        <v>7140878.632872825</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9630,22 +9630,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492264</v>
+        <v>111480298</v>
       </c>
       <c r="B82" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9658,21 +9658,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9682,10 +9682,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>489910.1009328889</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R82" t="n">
-        <v>7140823.155509771</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9742,22 +9742,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492272</v>
+        <v>111480445</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9770,21 +9770,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9794,10 +9794,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>489915.5371736808</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R83" t="n">
-        <v>7140895.391365884</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9854,22 +9854,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480384</v>
+        <v>111492281</v>
       </c>
       <c r="B84" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9878,25 +9878,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9906,10 +9906,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>489794.5838017719</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R84" t="n">
-        <v>7140737.869752969</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9966,22 +9966,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111480423</v>
+        <v>111492282</v>
       </c>
       <c r="B85" t="n">
-        <v>89423</v>
+        <v>78611</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9990,25 +9990,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10018,10 +10018,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>490169.5447032704</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R85" t="n">
-        <v>7140808.466902939</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10078,19 +10078,19 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111480296</v>
+        <v>111492268</v>
       </c>
       <c r="B86" t="n">
         <v>78578</v>
@@ -10130,10 +10130,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>489802.401819757</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R86" t="n">
-        <v>7140743.901159636</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10190,22 +10190,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492277</v>
+        <v>111492254</v>
       </c>
       <c r="B87" t="n">
-        <v>73683</v>
+        <v>73696</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10214,25 +10214,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>306</v>
+        <v>6440</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10242,10 +10242,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>490006.489164856</v>
+        <v>489798.4158412284</v>
       </c>
       <c r="R87" t="n">
-        <v>7140889.468873618</v>
+        <v>7140977.981913811</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10314,10 +10314,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492260</v>
+        <v>111492271</v>
       </c>
       <c r="B88" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10330,21 +10330,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10354,10 +10354,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>490029.82430114</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R88" t="n">
-        <v>7141004.908987134</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10426,10 +10426,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492281</v>
+        <v>111492253</v>
       </c>
       <c r="B89" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10442,21 +10442,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>490000.098590193</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R89" t="n">
-        <v>7140922.37116597</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492275</v>
+        <v>111492267</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -10578,10 +10578,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>489806.4619114766</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R90" t="n">
-        <v>7140662.11125663</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10650,10 +10650,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492267</v>
+        <v>111480335</v>
       </c>
       <c r="B91" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10662,25 +10662,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10690,10 +10690,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>490129.0741084609</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R91" t="n">
-        <v>7140751.917492756</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10750,22 +10750,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492257</v>
+        <v>111480423</v>
       </c>
       <c r="B92" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10774,25 +10774,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10802,10 +10802,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>489807.3341186864</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R92" t="n">
-        <v>7140663.839095047</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10862,22 +10862,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480298</v>
+        <v>111480383</v>
       </c>
       <c r="B93" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10886,25 +10886,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10914,10 +10914,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>489766.2095541009</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R93" t="n">
-        <v>7140673.495220769</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10986,10 +10986,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480161</v>
+        <v>111480185</v>
       </c>
       <c r="B94" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10998,25 +10998,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11026,10 +11026,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>490135.9205220507</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R94" t="n">
-        <v>7140860.061565773</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11098,10 +11098,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480183</v>
+        <v>111480141</v>
       </c>
       <c r="B95" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11110,25 +11110,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11138,10 +11138,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>490012.5186072908</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R95" t="n">
-        <v>7140878.632872825</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11210,10 +11210,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480184</v>
+        <v>111480161</v>
       </c>
       <c r="B96" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11222,25 +11222,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11250,10 +11250,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>489770.4033965064</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R96" t="n">
-        <v>7140891.545973015</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11322,10 +11322,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480043</v>
+        <v>111480184</v>
       </c>
       <c r="B97" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11338,21 +11338,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11362,10 +11362,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>489811.4112532215</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R97" t="n">
-        <v>7140977.938669946</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11434,10 +11434,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480210</v>
+        <v>111480069</v>
       </c>
       <c r="B98" t="n">
-        <v>78512</v>
+        <v>89405</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11446,25 +11446,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11474,10 +11474,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>489805.4242373512</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R98" t="n">
-        <v>7140740.862385634</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11546,10 +11546,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480069</v>
+        <v>111480183</v>
       </c>
       <c r="B99" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11562,21 +11562,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11586,10 +11586,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>489808.3789904107</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R99" t="n">
-        <v>7140977.94875525</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480185</v>
+        <v>111480186</v>
       </c>
       <c r="B100" t="n">
         <v>78579</v>
@@ -11698,10 +11698,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>489776.7843540448</v>
+        <v>489758.3970701658</v>
       </c>
       <c r="R100" t="n">
-        <v>7140856.479597869</v>
+        <v>7140669.194484891</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11770,10 +11770,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480186</v>
+        <v>111480043</v>
       </c>
       <c r="B101" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11786,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>489758.3970701658</v>
+        <v>489811.4112532215</v>
       </c>
       <c r="R101" t="n">
-        <v>7140669.194484891</v>
+        <v>7140977.938669946</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11882,10 +11882,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480087</v>
+        <v>111480210</v>
       </c>
       <c r="B102" t="n">
-        <v>90087</v>
+        <v>78512</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11898,21 +11898,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3298</v>
+        <v>6456</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11922,10 +11922,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>489792.3874608531</v>
+        <v>489805.4242373512</v>
       </c>
       <c r="R102" t="n">
-        <v>7140728.790892559</v>
+        <v>7140740.862385634</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11994,10 +11994,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480072</v>
+        <v>111480008</v>
       </c>
       <c r="B103" t="n">
-        <v>89405</v>
+        <v>103273</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12006,25 +12006,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>221725</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12034,10 +12034,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>489781.8762993646</v>
+        <v>490011.645166218</v>
       </c>
       <c r="R103" t="n">
-        <v>7140694.644355448</v>
+        <v>7140876.472447483</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12106,10 +12106,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480141</v>
+        <v>111480087</v>
       </c>
       <c r="B104" t="n">
-        <v>78605</v>
+        <v>90087</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12122,21 +12122,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6462</v>
+        <v>3298</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>489770.4033965064</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R104" t="n">
-        <v>7140891.545973015</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12218,10 +12218,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480008</v>
+        <v>111480072</v>
       </c>
       <c r="B105" t="n">
-        <v>103273</v>
+        <v>89405</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12230,25 +12230,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>221725</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12258,10 +12258,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>490011.645166218</v>
+        <v>489781.8762993646</v>
       </c>
       <c r="R105" t="n">
-        <v>7140876.472447483</v>
+        <v>7140694.644355448</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111476453</v>
+        <v>111476439</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>490140.7149260837</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R2" t="n">
-        <v>7140869.131914983</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476429</v>
+        <v>111476442</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489815.4226730386</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R3" t="n">
-        <v>7140751.213293974</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111481798</v>
+        <v>111479768</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489695.5635774976</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R4" t="n">
-        <v>7140664.64561378</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111481801</v>
+        <v>111479776</v>
       </c>
       <c r="B5" t="n">
-        <v>78605</v>
+        <v>96368</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489644.5611277207</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R5" t="n">
-        <v>7140827.935422103</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476448</v>
+        <v>111479769</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489876.9016010665</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R6" t="n">
-        <v>7140870.85750405</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111476432</v>
+        <v>111479767</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489837.4677177655</v>
+        <v>490050.1831033034</v>
       </c>
       <c r="R7" t="n">
-        <v>7140736.429197143</v>
+        <v>7140737.894443879</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1340,22 +1340,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111481802</v>
+        <v>111476428</v>
       </c>
       <c r="B8" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489735.2410806222</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R8" t="n">
-        <v>7140998.959601722</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481815</v>
+        <v>111476447</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,13 +1504,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489677.1923899396</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R9" t="n">
-        <v>7140998.289362041</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1564,22 +1564,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111479764</v>
+        <v>111479775</v>
       </c>
       <c r="B10" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489825.6631737759</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R10" t="n">
-        <v>7140704.017605744</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479780</v>
+        <v>111479784</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489832.05664893</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R11" t="n">
-        <v>7140672.410641763</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111479791</v>
+        <v>111481799</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489746.2870670959</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R12" t="n">
-        <v>7140675.292557321</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1900,22 +1900,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111481813</v>
+        <v>111481800</v>
       </c>
       <c r="B13" t="n">
-        <v>78612</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6464</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489665.5194976524</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R13" t="n">
-        <v>7140748.253840107</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479768</v>
+        <v>111481814</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>78612</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,13 +2064,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489784.979046855</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R14" t="n">
-        <v>7140845.63580357</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2124,22 +2124,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111476445</v>
+        <v>111479791</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>490173.9669357104</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R15" t="n">
-        <v>7140836.575755515</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2236,19 +2236,19 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111476418</v>
+        <v>111479772</v>
       </c>
       <c r="B16" t="n">
         <v>90087</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489778.5245607619</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R16" t="n">
-        <v>7140728.837106518</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2342,28 +2342,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479763</v>
+        <v>111479781</v>
       </c>
       <c r="B17" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,21 +2377,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2401,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489823.5173122073</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R17" t="n">
-        <v>7140970.976177845</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2473,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111481804</v>
+        <v>111476453</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2489,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,13 +2513,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489649.3234224396</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R18" t="n">
-        <v>7140827.054006468</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2572,22 +2573,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111481808</v>
+        <v>111476450</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2596,41 +2597,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489618.6049431616</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R19" t="n">
-        <v>7140966.471951276</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2678,25 +2687,26 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111481812</v>
+        <v>111476449</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2736,13 +2746,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489776.5506159168</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R20" t="n">
-        <v>7140656.585996962</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2796,19 +2806,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111481810</v>
+        <v>111476445</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2848,13 +2858,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489736.1248279089</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R21" t="n">
-        <v>7141004.148289163</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2908,22 +2918,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111479785</v>
+        <v>111481813</v>
       </c>
       <c r="B22" t="n">
-        <v>89590</v>
+        <v>78612</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2932,25 +2942,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>6464</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2960,13 +2970,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489747.1332446564</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R22" t="n">
-        <v>7140669.232153737</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3020,22 +3030,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481800</v>
+        <v>111476421</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>96368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3048,21 +3058,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3072,13 +3082,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489821.9038792807</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R23" t="n">
-        <v>7141006.890577544</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3132,22 +3142,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111476441</v>
+        <v>111481811</v>
       </c>
       <c r="B24" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3156,25 +3166,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3184,13 +3194,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489865.878933667</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R24" t="n">
-        <v>7140943.579226637</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3244,19 +3254,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111476426</v>
+        <v>111481809</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3296,13 +3306,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490023.2829794704</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R25" t="n">
-        <v>7140991.518518048</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3356,22 +3366,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111476431</v>
+        <v>111476446</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3380,25 +3390,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3408,10 +3418,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489998.828683018</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R26" t="n">
-        <v>7140931.460910414</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3480,10 +3490,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111481816</v>
+        <v>111479780</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3496,21 +3506,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3520,13 +3530,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489798.9642616356</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R27" t="n">
-        <v>7141012.591141199</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3580,22 +3590,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481803</v>
+        <v>111479792</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3604,25 +3614,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3632,13 +3642,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489663.3563524204</v>
+        <v>489806.0675517298</v>
       </c>
       <c r="R28" t="n">
-        <v>7140749.12648284</v>
+        <v>7140673.795043741</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3692,22 +3702,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111481814</v>
+        <v>111476451</v>
       </c>
       <c r="B29" t="n">
-        <v>78612</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3716,41 +3726,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489733.9516960242</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R29" t="n">
-        <v>7141001.992384473</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3798,28 +3816,29 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111481811</v>
+        <v>111481815</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3832,21 +3851,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3856,10 +3875,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489798.9642616356</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R30" t="n">
-        <v>7141012.591141199</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4040,7 +4059,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111476447</v>
+        <v>111481804</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4080,13 +4099,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489901.6080066679</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R32" t="n">
-        <v>7140875.102526958</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4140,22 +4159,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111479781</v>
+        <v>111481816</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4168,21 +4187,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4192,13 +4211,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489808.2480602256</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R33" t="n">
-        <v>7140678.114621677</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4252,19 +4271,19 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111476422</v>
+        <v>111481802</v>
       </c>
       <c r="B34" t="n">
         <v>78579</v>
@@ -4304,13 +4323,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>490176.9771446643</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R34" t="n">
-        <v>7140829.643533329</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4364,19 +4383,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111481805</v>
+        <v>111481810</v>
       </c>
       <c r="B35" t="n">
         <v>78578</v>
@@ -4416,10 +4435,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489644.1308507675</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R35" t="n">
-        <v>7140828.802200046</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4488,10 +4507,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111479770</v>
+        <v>111479788</v>
       </c>
       <c r="B36" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4500,25 +4519,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4528,10 +4547,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489808.3171113685</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R36" t="n">
-        <v>7140829.11698899</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4582,7 +4601,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4601,10 +4619,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111479776</v>
+        <v>111481805</v>
       </c>
       <c r="B37" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4613,25 +4631,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4641,13 +4659,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489790.1442766788</v>
+        <v>489644.1308507675</v>
       </c>
       <c r="R37" t="n">
-        <v>7140835.667408227</v>
+        <v>7140828.802200046</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4701,22 +4719,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111479772</v>
+        <v>111481801</v>
       </c>
       <c r="B38" t="n">
-        <v>90087</v>
+        <v>78605</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4729,21 +4747,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3298</v>
+        <v>6462</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4753,13 +4771,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489831.4084576743</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R38" t="n">
-        <v>7140738.179997628</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4807,29 +4825,28 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111479792</v>
+        <v>111481812</v>
       </c>
       <c r="B39" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4838,25 +4855,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4866,13 +4883,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489806.0675517298</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R39" t="n">
-        <v>7140673.795043741</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4926,22 +4943,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111481807</v>
+        <v>111479770</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4950,25 +4967,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4978,13 +4995,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489622.997758265</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R40" t="n">
-        <v>7140856.56393067</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5032,28 +5049,29 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111479767</v>
+        <v>111481808</v>
       </c>
       <c r="B41" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5066,21 +5084,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5090,13 +5108,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>490050.1831033034</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R41" t="n">
-        <v>7140737.894443879</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5150,19 +5168,19 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481799</v>
+        <v>111481798</v>
       </c>
       <c r="B42" t="n">
         <v>90087</v>
@@ -5202,10 +5220,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489701.4212471162</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R42" t="n">
-        <v>7140989.555053207</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5274,10 +5292,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111481809</v>
+        <v>111479763</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5290,21 +5308,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5314,13 +5332,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489716.1870822187</v>
+        <v>489823.5173122073</v>
       </c>
       <c r="R43" t="n">
-        <v>7141000.754049809</v>
+        <v>7140970.976177845</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5374,22 +5392,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111479775</v>
+        <v>111479764</v>
       </c>
       <c r="B44" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5398,25 +5416,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5426,10 +5444,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489737.5515961287</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R44" t="n">
-        <v>7140654.120246909</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5498,10 +5516,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111479784</v>
+        <v>111481803</v>
       </c>
       <c r="B45" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5510,25 +5528,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5538,13 +5556,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489806.0819462601</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R45" t="n">
-        <v>7140678.121827234</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5598,22 +5616,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111479769</v>
+        <v>111481807</v>
       </c>
       <c r="B46" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5626,21 +5644,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5650,13 +5668,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489821.4272813612</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R46" t="n">
-        <v>7140733.021041368</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5710,22 +5728,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479788</v>
+        <v>111479785</v>
       </c>
       <c r="B47" t="n">
-        <v>89419</v>
+        <v>89590</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5734,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1204</v>
+        <v>48</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5762,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489770.4450087619</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R47" t="n">
-        <v>7140644.491144991</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5834,7 +5852,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111492266</v>
+        <v>111480295</v>
       </c>
       <c r="B48" t="n">
         <v>78578</v>
@@ -5874,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490044.5119551711</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R48" t="n">
-        <v>7140725.797964292</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5934,19 +5952,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111492269</v>
+        <v>111492267</v>
       </c>
       <c r="B49" t="n">
         <v>78578</v>
@@ -5986,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490029.82430114</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R49" t="n">
-        <v>7141004.908987134</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6058,10 +6076,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111480294</v>
+        <v>111492264</v>
       </c>
       <c r="B50" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6074,21 +6092,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6098,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>489770.4033965064</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R50" t="n">
-        <v>7140891.545973015</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6158,22 +6176,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111492277</v>
+        <v>111492283</v>
       </c>
       <c r="B51" t="n">
-        <v>73683</v>
+        <v>78611</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6186,21 +6204,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>306</v>
+        <v>6463</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6210,10 +6228,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>490006.489164856</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R51" t="n">
-        <v>7140889.468873618</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6282,10 +6300,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111492279</v>
+        <v>111492257</v>
       </c>
       <c r="B52" t="n">
-        <v>89423</v>
+        <v>78605</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6294,25 +6312,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6322,10 +6340,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489883.9159544517</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R52" t="n">
-        <v>7140764.831883652</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6394,10 +6412,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111492256</v>
+        <v>111492254</v>
       </c>
       <c r="B53" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6410,21 +6428,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6434,10 +6452,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>490019.4497180494</v>
+        <v>489798.4158412284</v>
       </c>
       <c r="R53" t="n">
-        <v>7140878.610287084</v>
+        <v>7140977.981913811</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6506,10 +6524,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111492259</v>
+        <v>111492270</v>
       </c>
       <c r="B54" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6522,21 +6540,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6546,10 +6564,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490044.5091435921</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R54" t="n">
-        <v>7140724.932621562</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6618,10 +6636,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111480424</v>
+        <v>111492281</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6634,21 +6652,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6658,10 +6676,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489748.4256788645</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R55" t="n">
-        <v>7140667.064407941</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6718,22 +6736,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111480395</v>
+        <v>111480297</v>
       </c>
       <c r="B56" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6746,21 +6764,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6770,10 +6788,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>490032.4114640003</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R56" t="n">
-        <v>7140734.923483816</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6842,10 +6860,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111492274</v>
+        <v>111480335</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6854,25 +6872,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6882,10 +6900,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>489910.1009328889</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R57" t="n">
-        <v>7140823.155509771</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6942,22 +6960,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111480296</v>
+        <v>111480236</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6970,21 +6988,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6994,10 +7012,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489802.401819757</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R58" t="n">
-        <v>7140743.901159636</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7066,7 +7084,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111480297</v>
+        <v>111480298</v>
       </c>
       <c r="B59" t="n">
         <v>78578</v>
@@ -7106,10 +7124,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>489825.6732306023</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R59" t="n">
-        <v>7140707.046325015</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7178,7 +7196,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111480498</v>
+        <v>111480496</v>
       </c>
       <c r="B60" t="n">
         <v>85715</v>
@@ -7218,10 +7236,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>489787.1248523716</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R60" t="n">
-        <v>7140839.571414692</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7290,10 +7308,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111492280</v>
+        <v>111480291</v>
       </c>
       <c r="B61" t="n">
-        <v>90351</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7302,25 +7320,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4787</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7330,10 +7348,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>489771.1399207082</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R61" t="n">
-        <v>7140982.399260296</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7390,22 +7408,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111480496</v>
+        <v>111492260</v>
       </c>
       <c r="B62" t="n">
-        <v>85715</v>
+        <v>78579</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7418,21 +7436,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>510</v>
+        <v>2081</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7442,10 +7460,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>489789.3052706157</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R62" t="n">
-        <v>7140843.89074567</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7502,19 +7520,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111492278</v>
+        <v>111492279</v>
       </c>
       <c r="B63" t="n">
         <v>89423</v>
@@ -7554,10 +7572,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>490007.7957919214</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R63" t="n">
-        <v>7141024.449337299</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7626,10 +7644,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111492260</v>
+        <v>111492280</v>
       </c>
       <c r="B64" t="n">
-        <v>78579</v>
+        <v>90351</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7638,25 +7656,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2081</v>
+        <v>4787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7666,10 +7684,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>490029.82430114</v>
+        <v>489771.1399207082</v>
       </c>
       <c r="R64" t="n">
-        <v>7141004.908987134</v>
+        <v>7140982.399260296</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7738,10 +7756,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111492283</v>
+        <v>111492259</v>
       </c>
       <c r="B65" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7750,25 +7768,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7778,10 +7796,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>489807.3341186864</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R65" t="n">
-        <v>7140663.839095047</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7850,7 +7868,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111492275</v>
+        <v>111492266</v>
       </c>
       <c r="B66" t="n">
         <v>78578</v>
@@ -7890,10 +7908,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>489806.4619114766</v>
+        <v>490044.5119551711</v>
       </c>
       <c r="R66" t="n">
-        <v>7140662.11125663</v>
+        <v>7140725.797964292</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7962,10 +7980,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111492270</v>
+        <v>111480395</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7978,21 +7996,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8002,10 +8020,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>490022.0059880563</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R67" t="n">
-        <v>7140998.444884341</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8062,19 +8080,19 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111492276</v>
+        <v>111480293</v>
       </c>
       <c r="B68" t="n">
         <v>78578</v>
@@ -8114,10 +8132,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489764.8000431156</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R68" t="n">
-        <v>7140640.615804542</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8174,22 +8192,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111492257</v>
+        <v>111480294</v>
       </c>
       <c r="B69" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8198,25 +8216,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8226,10 +8244,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489807.3341186864</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R69" t="n">
-        <v>7140663.839095047</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8286,22 +8304,22 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111480446</v>
+        <v>111480296</v>
       </c>
       <c r="B70" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8314,21 +8332,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8338,10 +8356,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>489877.1088730107</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R70" t="n">
-        <v>7140933.591242422</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8410,10 +8428,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111480291</v>
+        <v>111492261</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8426,21 +8444,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8450,10 +8468,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>490035.394719597</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R71" t="n">
-        <v>7140719.770132355</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8510,19 +8528,19 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111480293</v>
+        <v>111492273</v>
       </c>
       <c r="B72" t="n">
         <v>78578</v>
@@ -8562,10 +8580,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>489876.6856929233</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R72" t="n">
-        <v>7140936.621166581</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8622,22 +8640,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111492264</v>
+        <v>111492268</v>
       </c>
       <c r="B73" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8650,21 +8668,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8674,10 +8692,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>489910.1009328889</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R73" t="n">
-        <v>7140823.155509771</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8746,10 +8764,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111492272</v>
+        <v>111480383</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8758,25 +8776,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8786,10 +8804,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>489915.5371736808</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R74" t="n">
-        <v>7140895.391365884</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8846,22 +8864,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111480384</v>
+        <v>111480445</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8870,25 +8888,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8898,10 +8916,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>489794.5838017719</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R75" t="n">
-        <v>7140737.869752969</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8970,7 +8988,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111480295</v>
+        <v>111492271</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9010,10 +9028,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>489778.091163906</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R76" t="n">
-        <v>7140858.638525736</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9070,22 +9088,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111492273</v>
+        <v>111492255</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9098,21 +9116,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9122,10 +9140,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>489874.3581914994</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R77" t="n">
-        <v>7140887.739431102</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9194,10 +9212,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111492255</v>
+        <v>111492277</v>
       </c>
       <c r="B78" t="n">
-        <v>73696</v>
+        <v>73683</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9206,25 +9224,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6440</v>
+        <v>306</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9234,10 +9252,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>489860.3922942375</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R78" t="n">
-        <v>7140725.536366037</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9306,10 +9324,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111492261</v>
+        <v>111492253</v>
       </c>
       <c r="B79" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9322,21 +9340,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9346,10 +9364,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>490022.003170063</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R79" t="n">
-        <v>7140997.579618414</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9418,10 +9436,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111492262</v>
+        <v>111492278</v>
       </c>
       <c r="B80" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9434,21 +9452,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9458,10 +9476,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>489875.6449040856</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R80" t="n">
-        <v>7140883.841297399</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9530,10 +9548,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111480236</v>
+        <v>111480498</v>
       </c>
       <c r="B81" t="n">
-        <v>89686</v>
+        <v>85715</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9546,21 +9564,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>658</v>
+        <v>510</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9570,10 +9588,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>489743.6066249603</v>
+        <v>489787.1248523716</v>
       </c>
       <c r="R81" t="n">
-        <v>7140651.07116806</v>
+        <v>7140839.571414692</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9642,10 +9660,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111480298</v>
+        <v>111480423</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9658,21 +9676,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9682,10 +9700,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>489766.2095541009</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R82" t="n">
-        <v>7140673.495220769</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9754,10 +9772,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111480445</v>
+        <v>111480424</v>
       </c>
       <c r="B83" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9770,21 +9788,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9794,10 +9812,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>490117.731828619</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R83" t="n">
-        <v>7140861.85080409</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9866,10 +9884,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111492281</v>
+        <v>111492282</v>
       </c>
       <c r="B84" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9878,20 +9896,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9906,10 +9924,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>490000.098590193</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R84" t="n">
-        <v>7140922.37116597</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9978,10 +9996,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492282</v>
+        <v>111492276</v>
       </c>
       <c r="B85" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9990,25 +10008,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10018,10 +10036,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>490022.0059880563</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R85" t="n">
-        <v>7140998.444884341</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10090,10 +10108,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492268</v>
+        <v>111492262</v>
       </c>
       <c r="B86" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10106,21 +10124,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10130,10 +10148,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>490139.7872713782</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R86" t="n">
-        <v>7140850.097995443</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10202,10 +10220,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492254</v>
+        <v>111480384</v>
       </c>
       <c r="B87" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10214,25 +10232,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10242,10 +10260,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>489798.4158412284</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R87" t="n">
-        <v>7140977.981913811</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10302,19 +10320,19 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492271</v>
+        <v>111492274</v>
       </c>
       <c r="B88" t="n">
         <v>78578</v>
@@ -10354,10 +10372,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>490018.4433133323</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R88" t="n">
-        <v>7140968.604357163</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10426,10 +10444,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492253</v>
+        <v>111492256</v>
       </c>
       <c r="B89" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10442,21 +10460,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10466,10 +10484,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>490012.5186072908</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R89" t="n">
-        <v>7140878.632872825</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10538,7 +10556,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492267</v>
+        <v>111492275</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -10578,10 +10596,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>490129.0741084609</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R90" t="n">
-        <v>7140751.917492756</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10650,10 +10668,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480335</v>
+        <v>111492269</v>
       </c>
       <c r="B91" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10662,25 +10680,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10690,10 +10708,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>489776.7843540448</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R91" t="n">
-        <v>7140856.479597869</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10750,22 +10768,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111480423</v>
+        <v>111492272</v>
       </c>
       <c r="B92" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10778,21 +10796,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10802,10 +10820,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>490169.5447032704</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R92" t="n">
-        <v>7140808.466902939</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10862,22 +10880,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480383</v>
+        <v>111480446</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10886,25 +10904,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10914,10 +10932,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>489804.554930158</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R93" t="n">
-        <v>7140739.999929952</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11098,10 +11116,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480141</v>
+        <v>111480183</v>
       </c>
       <c r="B95" t="n">
-        <v>78605</v>
+        <v>78579</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11110,25 +11128,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11138,10 +11156,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>489770.4033965064</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R95" t="n">
-        <v>7140891.545973015</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11210,10 +11228,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480161</v>
+        <v>111480186</v>
       </c>
       <c r="B96" t="n">
-        <v>96368</v>
+        <v>78579</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11222,25 +11240,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11250,10 +11268,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>490135.9205220507</v>
+        <v>489758.3970701658</v>
       </c>
       <c r="R96" t="n">
-        <v>7140860.061565773</v>
+        <v>7140669.194484891</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11322,10 +11340,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480184</v>
+        <v>111480141</v>
       </c>
       <c r="B97" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11334,25 +11352,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11434,10 +11452,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480069</v>
+        <v>111480008</v>
       </c>
       <c r="B98" t="n">
-        <v>89405</v>
+        <v>103273</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11446,25 +11464,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1202</v>
+        <v>221725</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11474,10 +11492,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>489808.3789904107</v>
+        <v>490011.645166218</v>
       </c>
       <c r="R98" t="n">
-        <v>7140977.94875525</v>
+        <v>7140876.472447483</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11546,7 +11564,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480183</v>
+        <v>111480184</v>
       </c>
       <c r="B99" t="n">
         <v>78579</v>
@@ -11586,10 +11604,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>490012.5186072908</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R99" t="n">
-        <v>7140878.632872825</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11658,10 +11676,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480186</v>
+        <v>111480043</v>
       </c>
       <c r="B100" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11674,21 +11692,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11698,10 +11716,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>489758.3970701658</v>
+        <v>489811.4112532215</v>
       </c>
       <c r="R100" t="n">
-        <v>7140669.194484891</v>
+        <v>7140977.938669946</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11770,10 +11788,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480043</v>
+        <v>111480087</v>
       </c>
       <c r="B101" t="n">
-        <v>73696</v>
+        <v>90087</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11782,25 +11800,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11828,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>489811.4112532215</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R101" t="n">
-        <v>7140977.938669946</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11882,10 +11900,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480210</v>
+        <v>111480161</v>
       </c>
       <c r="B102" t="n">
-        <v>78512</v>
+        <v>96368</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11898,21 +11916,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6456</v>
+        <v>221952</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11922,10 +11940,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>489805.4242373512</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R102" t="n">
-        <v>7140740.862385634</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11994,10 +12012,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480008</v>
+        <v>111480072</v>
       </c>
       <c r="B103" t="n">
-        <v>103273</v>
+        <v>89405</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12006,25 +12024,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>221725</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12034,10 +12052,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>490011.645166218</v>
+        <v>489781.8762993646</v>
       </c>
       <c r="R103" t="n">
-        <v>7140876.472447483</v>
+        <v>7140694.644355448</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12106,10 +12124,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480087</v>
+        <v>111480210</v>
       </c>
       <c r="B104" t="n">
-        <v>90087</v>
+        <v>78512</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12122,21 +12140,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3298</v>
+        <v>6456</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12146,10 +12164,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>489792.3874608531</v>
+        <v>489805.4242373512</v>
       </c>
       <c r="R104" t="n">
-        <v>7140728.790892559</v>
+        <v>7140740.862385634</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12218,7 +12236,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480072</v>
+        <v>111480069</v>
       </c>
       <c r="B105" t="n">
         <v>89405</v>
@@ -12258,10 +12276,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>489781.8762993646</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R105" t="n">
-        <v>7140694.644355448</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -3378,7 +3378,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111476446</v>
+        <v>111476426</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -5628,10 +5628,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481807</v>
+        <v>111479785</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,25 +5640,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,13 +5668,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489622.997758265</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R46" t="n">
-        <v>7140856.56393067</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5728,22 +5728,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479785</v>
+        <v>111481807</v>
       </c>
       <c r="B47" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,13 +5780,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489747.1332446564</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R47" t="n">
-        <v>7140669.232153737</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5840,12 +5840,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111476439</v>
+        <v>111481812</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489778.5245607619</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R2" t="n">
-        <v>7140728.837106518</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476442</v>
+        <v>111481801</v>
       </c>
       <c r="B3" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>490176.9771446643</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R3" t="n">
-        <v>7140829.643533329</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111479768</v>
+        <v>111481802</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489784.979046855</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R4" t="n">
-        <v>7140845.63580357</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111479776</v>
+        <v>111476450</v>
       </c>
       <c r="B5" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1028,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489790.1442766788</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R5" t="n">
-        <v>7140835.667408227</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1110,28 +1118,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111479769</v>
+        <v>111476448</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489821.4272813612</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R6" t="n">
-        <v>7140733.021041368</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1228,22 +1237,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111479767</v>
+        <v>111481813</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>78612</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1261,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,13 +1289,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490050.1831033034</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R7" t="n">
-        <v>7140737.894443879</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1340,19 +1349,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111476428</v>
+        <v>111481809</v>
       </c>
       <c r="B8" t="n">
         <v>78578</v>
@@ -1392,13 +1401,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489876.9016010665</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R8" t="n">
-        <v>7140870.85750405</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1461,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111476447</v>
+        <v>111476432</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1485,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489901.6080066679</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R9" t="n">
-        <v>7140875.102526958</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111479775</v>
+        <v>111476434</v>
       </c>
       <c r="B10" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1597,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489737.5515961287</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R10" t="n">
-        <v>7140654.120246909</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1676,22 +1685,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111479784</v>
+        <v>111476447</v>
       </c>
       <c r="B11" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489806.0819462601</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R11" t="n">
-        <v>7140678.121827234</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1788,22 +1797,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111481799</v>
+        <v>111481805</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1821,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1849,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489701.4212471162</v>
+        <v>489644.1308507675</v>
       </c>
       <c r="R12" t="n">
-        <v>7140989.555053207</v>
+        <v>7140828.802200046</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1912,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111481800</v>
+        <v>111481803</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1933,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489821.9038792807</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R13" t="n">
-        <v>7141006.890577544</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2024,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111481814</v>
+        <v>111476433</v>
       </c>
       <c r="B14" t="n">
-        <v>78612</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2045,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,13 +2073,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489733.9516960242</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R14" t="n">
-        <v>7141001.992384473</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2124,22 +2133,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479791</v>
+        <v>111476441</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2157,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489746.2870670959</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R15" t="n">
-        <v>7140675.292557321</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2236,22 +2245,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479772</v>
+        <v>111476426</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2269,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489831.4084576743</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R16" t="n">
-        <v>7140738.179997628</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2342,29 +2351,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479781</v>
+        <v>111479792</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2373,25 +2381,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2401,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489808.2480602256</v>
+        <v>489806.0675517298</v>
       </c>
       <c r="R17" t="n">
-        <v>7140678.114621677</v>
+        <v>7140673.795043741</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2473,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111476453</v>
+        <v>111479768</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2489,21 +2497,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2513,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490140.7149260837</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R18" t="n">
-        <v>7140869.131914983</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2573,22 +2581,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111476450</v>
+        <v>111479781</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2597,46 +2605,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489998.828683018</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R19" t="n">
-        <v>7140931.460910414</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2687,29 +2687,28 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111476449</v>
+        <v>111481816</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2722,21 +2721,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2746,13 +2745,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489815.4226730386</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R20" t="n">
-        <v>7140751.213293974</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2806,22 +2805,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476445</v>
+        <v>111476422</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2834,21 +2833,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2858,10 +2857,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490173.9669357104</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R21" t="n">
-        <v>7140836.575755515</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2930,10 +2929,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111481813</v>
+        <v>111476449</v>
       </c>
       <c r="B22" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,25 +2941,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,13 +2969,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489665.5194976524</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R22" t="n">
-        <v>7140748.253840107</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3030,22 +3029,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111476421</v>
+        <v>111479788</v>
       </c>
       <c r="B23" t="n">
-        <v>96368</v>
+        <v>89419</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3054,25 +3053,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>1204</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3082,10 +3081,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489865.878933667</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R23" t="n">
-        <v>7140943.579226637</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3142,22 +3141,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481811</v>
+        <v>111479776</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3166,25 +3165,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3194,13 +3193,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489798.9642616356</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R24" t="n">
-        <v>7141012.591141199</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3254,19 +3253,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111481809</v>
+        <v>111476425</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3306,13 +3305,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489716.1870822187</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R25" t="n">
-        <v>7141000.754049809</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3366,22 +3365,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111476426</v>
+        <v>111481798</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3390,25 +3389,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3418,13 +3417,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>490023.2829794704</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R26" t="n">
-        <v>7140991.518518048</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3478,22 +3477,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111479780</v>
+        <v>111481814</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3502,25 +3501,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3530,13 +3529,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489832.05664893</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R27" t="n">
-        <v>7140672.410641763</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3590,22 +3589,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111479792</v>
+        <v>111481804</v>
       </c>
       <c r="B28" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3614,25 +3613,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3642,13 +3641,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489806.0675517298</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R28" t="n">
-        <v>7140673.795043741</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3702,22 +3701,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111476451</v>
+        <v>111479769</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3726,46 +3725,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489837.4677177655</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R29" t="n">
-        <v>7140736.429197143</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3816,29 +3807,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111481815</v>
+        <v>111479791</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3851,21 +3841,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3875,13 +3865,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489677.1923899396</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R30" t="n">
-        <v>7140998.289362041</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3935,22 +3925,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111476433</v>
+        <v>111481810</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3959,25 +3949,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3987,13 +3977,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489815.0024043967</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R31" t="n">
-        <v>7140755.108741223</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4047,19 +4037,19 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111481804</v>
+        <v>111479780</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4099,13 +4089,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489649.3234224396</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R32" t="n">
-        <v>7140827.054006468</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4159,22 +4149,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111481816</v>
+        <v>111479767</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4187,21 +4177,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4211,13 +4201,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489798.9642616356</v>
+        <v>490050.1831033034</v>
       </c>
       <c r="R33" t="n">
-        <v>7141012.591141199</v>
+        <v>7140737.894443879</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4271,22 +4261,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111481802</v>
+        <v>111479775</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4295,25 +4285,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4323,13 +4313,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489735.2410806222</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R34" t="n">
-        <v>7140998.959601722</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4383,19 +4373,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111481810</v>
+        <v>111481807</v>
       </c>
       <c r="B35" t="n">
         <v>78578</v>
@@ -4435,10 +4425,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489736.1248279089</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R35" t="n">
-        <v>7141004.148289163</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4507,10 +4497,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111479788</v>
+        <v>111481808</v>
       </c>
       <c r="B36" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4523,21 +4513,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4547,13 +4537,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489770.4450087619</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R36" t="n">
-        <v>7140644.491144991</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4607,22 +4597,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111481805</v>
+        <v>111481800</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4631,25 +4621,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4659,10 +4649,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489644.1308507675</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R37" t="n">
-        <v>7140828.802200046</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4731,10 +4721,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111481801</v>
+        <v>111481815</v>
       </c>
       <c r="B38" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,25 +4733,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4771,10 +4761,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489644.5611277207</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R38" t="n">
-        <v>7140827.935422103</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4843,10 +4833,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111481812</v>
+        <v>111479772</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4855,25 +4845,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4883,13 +4873,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489776.5506159168</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R39" t="n">
-        <v>7140656.585996962</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4937,28 +4927,29 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111479770</v>
+        <v>111479764</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>73696</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4967,25 +4958,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>6440</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4995,10 +4986,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489808.3171113685</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R40" t="n">
-        <v>7140829.11698899</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5049,7 +5040,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5068,10 +5058,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111481808</v>
+        <v>111479785</v>
       </c>
       <c r="B41" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5080,25 +5070,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5108,13 +5098,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489618.6049431616</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R41" t="n">
-        <v>7140966.471951276</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5168,19 +5158,19 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481798</v>
+        <v>111476418</v>
       </c>
       <c r="B42" t="n">
         <v>90087</v>
@@ -5220,13 +5210,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489695.5635774976</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R42" t="n">
-        <v>7140664.64561378</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5280,12 +5270,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
@@ -5404,10 +5394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111479764</v>
+        <v>111479784</v>
       </c>
       <c r="B44" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5416,25 +5406,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5444,10 +5434,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489825.6631737759</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R44" t="n">
-        <v>7140704.017605744</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5516,7 +5506,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481803</v>
+        <v>111481811</v>
       </c>
       <c r="B45" t="n">
         <v>78578</v>
@@ -5556,10 +5546,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489663.3563524204</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R45" t="n">
-        <v>7140749.12648284</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5628,10 +5618,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111479785</v>
+        <v>111481799</v>
       </c>
       <c r="B46" t="n">
-        <v>89590</v>
+        <v>90087</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5640,25 +5630,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48</v>
+        <v>3298</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,13 +5658,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489747.1332446564</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R46" t="n">
-        <v>7140669.232153737</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5728,22 +5718,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111481807</v>
+        <v>111479770</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5752,25 +5742,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5780,13 +5770,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489622.997758265</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R47" t="n">
-        <v>7140856.56393067</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5834,25 +5824,26 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111480295</v>
+        <v>111492266</v>
       </c>
       <c r="B48" t="n">
         <v>78578</v>
@@ -5892,10 +5883,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>489778.091163906</v>
+        <v>490044.5119551711</v>
       </c>
       <c r="R48" t="n">
-        <v>7140858.638525736</v>
+        <v>7140725.797964292</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5952,19 +5943,19 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111492267</v>
+        <v>111480298</v>
       </c>
       <c r="B49" t="n">
         <v>78578</v>
@@ -6004,10 +5995,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490129.0741084609</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R49" t="n">
-        <v>7140751.917492756</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6064,22 +6055,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111492264</v>
+        <v>111480446</v>
       </c>
       <c r="B50" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6092,21 +6083,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6116,10 +6107,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>489910.1009328889</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R50" t="n">
-        <v>7140823.155509771</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6176,22 +6167,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111492283</v>
+        <v>111492259</v>
       </c>
       <c r="B51" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6200,25 +6191,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6228,10 +6219,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>489807.3341186864</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R51" t="n">
-        <v>7140663.839095047</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6300,10 +6291,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111492257</v>
+        <v>111492280</v>
       </c>
       <c r="B52" t="n">
-        <v>78605</v>
+        <v>90351</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6316,21 +6307,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6462</v>
+        <v>4787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6340,10 +6331,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489807.3341186864</v>
+        <v>489771.1399207082</v>
       </c>
       <c r="R52" t="n">
-        <v>7140663.839095047</v>
+        <v>7140982.399260296</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6524,10 +6515,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111492270</v>
+        <v>111492278</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6540,21 +6531,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6564,10 +6555,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490022.0059880563</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R54" t="n">
-        <v>7140998.444884341</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6636,10 +6627,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111492281</v>
+        <v>111480496</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6652,21 +6643,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6676,10 +6667,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490000.098590193</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R55" t="n">
-        <v>7140922.37116597</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6736,22 +6727,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111480297</v>
+        <v>111492262</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6764,21 +6755,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6788,10 +6779,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>489825.6732306023</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R56" t="n">
-        <v>7140707.046325015</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6848,22 +6839,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111480335</v>
+        <v>111480423</v>
       </c>
       <c r="B57" t="n">
-        <v>78612</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6872,25 +6863,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6900,10 +6891,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>489776.7843540448</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R57" t="n">
-        <v>7140856.479597869</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6972,10 +6963,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111480236</v>
+        <v>111480335</v>
       </c>
       <c r="B58" t="n">
-        <v>89686</v>
+        <v>78612</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6984,25 +6975,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>658</v>
+        <v>6464</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7012,10 +7003,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489743.6066249603</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R58" t="n">
-        <v>7140651.07116806</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7084,7 +7075,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111480298</v>
+        <v>111492270</v>
       </c>
       <c r="B59" t="n">
         <v>78578</v>
@@ -7124,10 +7115,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>489766.2095541009</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R59" t="n">
-        <v>7140673.495220769</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7184,22 +7175,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111480496</v>
+        <v>111492279</v>
       </c>
       <c r="B60" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7212,21 +7203,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7236,10 +7227,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>489789.3052706157</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R60" t="n">
-        <v>7140843.89074567</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7296,19 +7287,19 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111480291</v>
+        <v>111480295</v>
       </c>
       <c r="B61" t="n">
         <v>78578</v>
@@ -7348,10 +7339,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>490035.394719597</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R61" t="n">
-        <v>7140719.770132355</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7420,10 +7411,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111492260</v>
+        <v>111480293</v>
       </c>
       <c r="B62" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7436,21 +7427,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7460,10 +7451,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>490029.82430114</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R62" t="n">
-        <v>7141004.908987134</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7520,22 +7511,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111492279</v>
+        <v>111480296</v>
       </c>
       <c r="B63" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7548,21 +7539,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7572,10 +7563,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>489883.9159544517</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R63" t="n">
-        <v>7140764.831883652</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7632,22 +7623,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111492280</v>
+        <v>111492257</v>
       </c>
       <c r="B64" t="n">
-        <v>90351</v>
+        <v>78605</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7660,21 +7651,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4787</v>
+        <v>6462</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7684,10 +7675,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>489771.1399207082</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R64" t="n">
-        <v>7140982.399260296</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7756,10 +7747,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111492259</v>
+        <v>111480395</v>
       </c>
       <c r="B65" t="n">
-        <v>78579</v>
+        <v>89419</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7772,21 +7763,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7796,10 +7787,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>490044.5091435921</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R65" t="n">
-        <v>7140724.932621562</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7856,22 +7847,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111492266</v>
+        <v>111480236</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7884,21 +7875,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7908,10 +7899,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>490044.5119551711</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R66" t="n">
-        <v>7140725.797964292</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7968,22 +7959,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111480395</v>
+        <v>111480384</v>
       </c>
       <c r="B67" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7992,25 +7983,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8020,10 +8011,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>490032.4114640003</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R67" t="n">
-        <v>7140734.923483816</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8092,10 +8083,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111480293</v>
+        <v>111492277</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>73683</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8104,25 +8095,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>306</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8132,10 +8123,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489876.6856929233</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R68" t="n">
-        <v>7140936.621166581</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8192,22 +8183,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111480294</v>
+        <v>111492283</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8216,25 +8207,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8244,10 +8235,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489770.4033965064</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R69" t="n">
-        <v>7140891.545973015</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8304,19 +8295,19 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111480296</v>
+        <v>111492273</v>
       </c>
       <c r="B70" t="n">
         <v>78578</v>
@@ -8356,10 +8347,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>489802.401819757</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R70" t="n">
-        <v>7140743.901159636</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8416,22 +8407,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111492261</v>
+        <v>111492276</v>
       </c>
       <c r="B71" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8444,21 +8435,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8468,10 +8459,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>490022.003170063</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R71" t="n">
-        <v>7140997.579618414</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8540,10 +8531,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111492273</v>
+        <v>111480445</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8556,21 +8547,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8580,10 +8571,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>489874.3581914994</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R72" t="n">
-        <v>7140887.739431102</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8640,19 +8631,19 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111492268</v>
+        <v>111480297</v>
       </c>
       <c r="B73" t="n">
         <v>78578</v>
@@ -8692,10 +8683,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>490139.7872713782</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R73" t="n">
-        <v>7140850.097995443</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8752,22 +8743,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111480383</v>
+        <v>111492253</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8776,25 +8767,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8804,10 +8795,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>489804.554930158</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R74" t="n">
-        <v>7140739.999929952</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8864,22 +8855,22 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111480445</v>
+        <v>111492255</v>
       </c>
       <c r="B75" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8892,21 +8883,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8916,10 +8907,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>490117.731828619</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R75" t="n">
-        <v>7140861.85080409</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8976,19 +8967,19 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111492271</v>
+        <v>111492269</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9028,10 +9019,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>490018.4433133323</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R76" t="n">
-        <v>7140968.604357163</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9100,10 +9091,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111492255</v>
+        <v>111492267</v>
       </c>
       <c r="B77" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9116,21 +9107,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9140,10 +9131,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>489860.3922942375</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R77" t="n">
-        <v>7140725.536366037</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9212,10 +9203,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111492277</v>
+        <v>111492282</v>
       </c>
       <c r="B78" t="n">
-        <v>73683</v>
+        <v>78611</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9228,21 +9219,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>306</v>
+        <v>6463</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9252,10 +9243,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>490006.489164856</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R78" t="n">
-        <v>7140889.468873618</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9324,10 +9315,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111492253</v>
+        <v>111492268</v>
       </c>
       <c r="B79" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9340,21 +9331,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9364,10 +9355,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>490012.5186072908</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R79" t="n">
-        <v>7140878.632872825</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9436,10 +9427,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111492278</v>
+        <v>111480294</v>
       </c>
       <c r="B80" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9452,21 +9443,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9476,10 +9467,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>490007.7957919214</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R80" t="n">
-        <v>7141024.449337299</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9536,12 +9527,12 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
@@ -9660,10 +9651,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111480423</v>
+        <v>111492256</v>
       </c>
       <c r="B82" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9676,21 +9667,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9700,10 +9691,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>490169.5447032704</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R82" t="n">
-        <v>7140808.466902939</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9760,22 +9751,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111480424</v>
+        <v>111492275</v>
       </c>
       <c r="B83" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9788,21 +9779,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9812,10 +9803,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>489748.4256788645</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R83" t="n">
-        <v>7140667.064407941</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9872,22 +9863,22 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111492282</v>
+        <v>111480383</v>
       </c>
       <c r="B84" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9896,25 +9887,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9924,10 +9915,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>490022.0059880563</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R84" t="n">
-        <v>7140998.444884341</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9984,22 +9975,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492276</v>
+        <v>111492260</v>
       </c>
       <c r="B85" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10012,21 +10003,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10036,10 +10027,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>489764.8000431156</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R85" t="n">
-        <v>7140640.615804542</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10108,7 +10099,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492262</v>
+        <v>111492261</v>
       </c>
       <c r="B86" t="n">
         <v>78579</v>
@@ -10148,10 +10139,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>489875.6449040856</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R86" t="n">
-        <v>7140883.841297399</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10220,10 +10211,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111480384</v>
+        <v>111492274</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10232,25 +10223,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10260,10 +10251,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>489794.5838017719</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R87" t="n">
-        <v>7140737.869752969</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10320,19 +10311,19 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492274</v>
+        <v>111492272</v>
       </c>
       <c r="B88" t="n">
         <v>78578</v>
@@ -10372,10 +10363,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>489910.1009328889</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R88" t="n">
-        <v>7140823.155509771</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10444,10 +10435,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492256</v>
+        <v>111492281</v>
       </c>
       <c r="B89" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10460,21 +10451,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10484,10 +10475,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>490019.4497180494</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R89" t="n">
-        <v>7140878.610287084</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10556,7 +10547,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492275</v>
+        <v>111480291</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -10596,10 +10587,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>489806.4619114766</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R90" t="n">
-        <v>7140662.11125663</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10656,22 +10647,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492269</v>
+        <v>111480424</v>
       </c>
       <c r="B91" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10684,21 +10675,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10708,10 +10699,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>490029.82430114</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R91" t="n">
-        <v>7141004.908987134</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10768,22 +10759,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492272</v>
+        <v>111492264</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10796,21 +10787,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10820,10 +10811,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>489915.5371736808</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R92" t="n">
-        <v>7140895.391365884</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10892,10 +10883,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480446</v>
+        <v>111492271</v>
       </c>
       <c r="B93" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10908,21 +10899,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10932,10 +10923,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>489877.1088730107</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R93" t="n">
-        <v>7140933.591242422</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10992,12 +10983,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
@@ -11116,10 +11107,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480183</v>
+        <v>111480008</v>
       </c>
       <c r="B95" t="n">
-        <v>78579</v>
+        <v>103273</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11128,25 +11119,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2081</v>
+        <v>221725</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11156,10 +11147,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>490012.5186072908</v>
+        <v>490011.645166218</v>
       </c>
       <c r="R95" t="n">
-        <v>7140878.632872825</v>
+        <v>7140876.472447483</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11340,10 +11331,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480141</v>
+        <v>111480210</v>
       </c>
       <c r="B97" t="n">
-        <v>78605</v>
+        <v>78512</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11356,21 +11347,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6462</v>
+        <v>6456</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11380,10 +11371,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>489770.4033965064</v>
+        <v>489805.4242373512</v>
       </c>
       <c r="R97" t="n">
-        <v>7140891.545973015</v>
+        <v>7140740.862385634</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11452,10 +11443,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480008</v>
+        <v>111480184</v>
       </c>
       <c r="B98" t="n">
-        <v>103273</v>
+        <v>78579</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11464,25 +11455,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>221725</v>
+        <v>2081</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11492,10 +11483,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>490011.645166218</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R98" t="n">
-        <v>7140876.472447483</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11564,7 +11555,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480184</v>
+        <v>111480183</v>
       </c>
       <c r="B99" t="n">
         <v>78579</v>
@@ -11604,10 +11595,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>489770.4033965064</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R99" t="n">
-        <v>7140891.545973015</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11676,10 +11667,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480043</v>
+        <v>111480072</v>
       </c>
       <c r="B100" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11692,21 +11683,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11716,10 +11707,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>489811.4112532215</v>
+        <v>489781.8762993646</v>
       </c>
       <c r="R100" t="n">
-        <v>7140977.938669946</v>
+        <v>7140694.644355448</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11788,10 +11779,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480087</v>
+        <v>111480043</v>
       </c>
       <c r="B101" t="n">
-        <v>90087</v>
+        <v>73696</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11800,25 +11791,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3298</v>
+        <v>6440</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11828,10 +11819,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>489792.3874608531</v>
+        <v>489811.4112532215</v>
       </c>
       <c r="R101" t="n">
-        <v>7140728.790892559</v>
+        <v>7140977.938669946</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11900,10 +11891,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480161</v>
+        <v>111480141</v>
       </c>
       <c r="B102" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11916,21 +11907,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11940,10 +11931,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>490135.9205220507</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R102" t="n">
-        <v>7140860.061565773</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12012,7 +12003,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480072</v>
+        <v>111480069</v>
       </c>
       <c r="B103" t="n">
         <v>89405</v>
@@ -12052,10 +12043,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>489781.8762993646</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R103" t="n">
-        <v>7140694.644355448</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12124,10 +12115,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480210</v>
+        <v>111480161</v>
       </c>
       <c r="B104" t="n">
-        <v>78512</v>
+        <v>96368</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12140,21 +12131,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6456</v>
+        <v>221952</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12164,10 +12155,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>489805.4242373512</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R104" t="n">
-        <v>7140740.862385634</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12236,10 +12227,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480069</v>
+        <v>111480087</v>
       </c>
       <c r="B105" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12248,25 +12239,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12276,10 +12267,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>489808.3789904107</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R105" t="n">
-        <v>7140977.94875525</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111481802</v>
+        <v>111476450</v>
       </c>
       <c r="B4" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +916,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489735.2410806222</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R4" t="n">
-        <v>7140998.959601722</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -998,28 +1006,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111476450</v>
+        <v>111476448</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,46 +1037,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489998.828683018</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R5" t="n">
-        <v>7140931.460910414</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1119,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476448</v>
+        <v>111481802</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489876.9016010665</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R6" t="n">
-        <v>7140870.85750405</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1237,12 +1237,12 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111476433</v>
+        <v>111476426</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,25 +2045,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489815.0024043967</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R14" t="n">
-        <v>7140755.108741223</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111476441</v>
+        <v>111476433</v>
       </c>
       <c r="B15" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,25 +2157,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489865.878933667</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R15" t="n">
-        <v>7140943.579226637</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111476426</v>
+        <v>111476441</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,25 +2269,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>490023.2829794704</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R16" t="n">
-        <v>7140991.518518048</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111481816</v>
+        <v>111476422</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,21 +2721,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489798.9642616356</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R20" t="n">
-        <v>7141012.591141199</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2805,22 +2805,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476422</v>
+        <v>111476449</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2833,21 +2833,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>490176.9771446643</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R21" t="n">
-        <v>7140829.643533329</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111476449</v>
+        <v>111481816</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2945,21 +2945,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489815.4226730386</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R22" t="n">
-        <v>7140751.213293974</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3029,12 +3029,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111479764</v>
+        <v>111476418</v>
       </c>
       <c r="B40" t="n">
-        <v>73696</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4958,25 +4958,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4986,10 +4986,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489825.6631737759</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R40" t="n">
-        <v>7140704.017605744</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5046,22 +5046,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111479785</v>
+        <v>111479764</v>
       </c>
       <c r="B41" t="n">
-        <v>89590</v>
+        <v>73696</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5070,25 +5070,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>48</v>
+        <v>6440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5098,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489747.1332446564</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R41" t="n">
-        <v>7140669.232153737</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5170,10 +5170,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111476418</v>
+        <v>111479785</v>
       </c>
       <c r="B42" t="n">
-        <v>90087</v>
+        <v>89590</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5182,25 +5182,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3298</v>
+        <v>48</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,10 +5210,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489778.5245607619</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R42" t="n">
-        <v>7140728.837106518</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5270,12 +5270,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111492278</v>
+        <v>111480496</v>
       </c>
       <c r="B54" t="n">
-        <v>89423</v>
+        <v>85715</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6531,21 +6531,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6555,10 +6555,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490007.7957919214</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R54" t="n">
-        <v>7141024.449337299</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6615,22 +6615,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111480496</v>
+        <v>111492278</v>
       </c>
       <c r="B55" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6643,21 +6643,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6667,10 +6667,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489789.3052706157</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R55" t="n">
-        <v>7140843.89074567</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6727,12 +6727,12 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
@@ -7859,10 +7859,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111480236</v>
+        <v>111492277</v>
       </c>
       <c r="B66" t="n">
-        <v>89686</v>
+        <v>73683</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7871,25 +7871,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>658</v>
+        <v>306</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>489743.6066249603</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R66" t="n">
-        <v>7140651.07116806</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7959,22 +7959,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111480384</v>
+        <v>111492283</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7983,25 +7983,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>489794.5838017719</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R67" t="n">
-        <v>7140737.869752969</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8071,22 +8071,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111492277</v>
+        <v>111480384</v>
       </c>
       <c r="B68" t="n">
-        <v>73683</v>
+        <v>96348</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8095,25 +8095,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>306</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8123,10 +8123,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>490006.489164856</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R68" t="n">
-        <v>7140889.468873618</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8183,22 +8183,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111492283</v>
+        <v>111480236</v>
       </c>
       <c r="B69" t="n">
-        <v>78611</v>
+        <v>89686</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8207,25 +8207,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6463</v>
+        <v>658</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8235,10 +8235,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489807.3341186864</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R69" t="n">
-        <v>7140663.839095047</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8295,12 +8295,12 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111480297</v>
+        <v>111492253</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8659,21 +8659,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8683,10 +8683,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>489825.6732306023</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R73" t="n">
-        <v>7140707.046325015</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8743,19 +8743,19 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111492253</v>
+        <v>111492255</v>
       </c>
       <c r="B74" t="n">
         <v>73696</v>
@@ -8795,10 +8795,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>490012.5186072908</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R74" t="n">
-        <v>7140878.632872825</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8867,10 +8867,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111492255</v>
+        <v>111492269</v>
       </c>
       <c r="B75" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8883,21 +8883,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8907,10 +8907,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>489860.3922942375</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R75" t="n">
-        <v>7140725.536366037</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111492269</v>
+        <v>111492267</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>490029.82430114</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R76" t="n">
-        <v>7141004.908987134</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111492267</v>
+        <v>111480297</v>
       </c>
       <c r="B77" t="n">
         <v>78578</v>
@@ -9131,10 +9131,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>490129.0741084609</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R77" t="n">
-        <v>7140751.917492756</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9191,12 +9191,12 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111481812</v>
+        <v>111476439</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489776.5506159168</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R2" t="n">
-        <v>7140656.585996962</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111481801</v>
+        <v>111476451</v>
       </c>
       <c r="B3" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +804,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489644.5611277207</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R3" t="n">
-        <v>7140827.935422103</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -886,28 +894,29 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111476450</v>
+        <v>111479775</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,46 +925,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489998.828683018</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R4" t="n">
-        <v>7140931.460910414</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1006,26 +1007,25 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111476448</v>
+        <v>111481803</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489876.9016010665</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R5" t="n">
-        <v>7140870.85750405</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1125,22 +1125,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111481802</v>
+        <v>111476446</v>
       </c>
       <c r="B6" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489735.2410806222</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R6" t="n">
-        <v>7140998.959601722</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1237,22 +1237,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111481813</v>
+        <v>111476422</v>
       </c>
       <c r="B7" t="n">
-        <v>78612</v>
+        <v>78579</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,25 +1261,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6464</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489665.5194976524</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R7" t="n">
-        <v>7140748.253840107</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1349,22 +1349,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111481809</v>
+        <v>111479785</v>
       </c>
       <c r="B8" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1373,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489716.1870822187</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R8" t="n">
-        <v>7141000.754049809</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1461,22 +1461,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111476432</v>
+        <v>111481811</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,25 +1485,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,13 +1513,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489837.4677177655</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R9" t="n">
-        <v>7140736.429197143</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1573,22 +1573,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111476434</v>
+        <v>111481802</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,21 +1601,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>490140.7149260837</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R10" t="n">
-        <v>7140869.131914983</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1685,19 +1685,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111476447</v>
+        <v>111476429</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489901.6080066679</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R11" t="n">
-        <v>7140875.102526958</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111481803</v>
+        <v>111481812</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489663.3563524204</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R13" t="n">
-        <v>7140749.12648284</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111476426</v>
+        <v>111479763</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2049,21 +2049,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>490023.2829794704</v>
+        <v>489823.5173122073</v>
       </c>
       <c r="R14" t="n">
-        <v>7140991.518518048</v>
+        <v>7140970.976177845</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2133,19 +2133,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111476433</v>
+        <v>111476452</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111476441</v>
+        <v>111479776</v>
       </c>
       <c r="B16" t="n">
         <v>96368</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489865.878933667</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R16" t="n">
-        <v>7140943.579226637</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2357,22 +2357,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479792</v>
+        <v>111479784</v>
       </c>
       <c r="B17" t="n">
-        <v>78611</v>
+        <v>78612</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2385,21 +2385,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6463</v>
+        <v>6464</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489806.0675517298</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R17" t="n">
-        <v>7140673.795043741</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111479768</v>
+        <v>111481809</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2497,21 +2497,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489784.979046855</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R18" t="n">
-        <v>7140845.63580357</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2581,22 +2581,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111479781</v>
+        <v>111476434</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2609,21 +2609,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489808.2480602256</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R19" t="n">
-        <v>7140678.114621677</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,22 +2693,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111476422</v>
+        <v>111476447</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2721,21 +2721,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>490176.9771446643</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R20" t="n">
-        <v>7140829.643533329</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476449</v>
+        <v>111476450</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,38 +2829,46 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489815.4226730386</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R21" t="n">
-        <v>7140751.213293974</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2911,6 +2919,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2929,10 +2938,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111481816</v>
+        <v>111476441</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2941,25 +2950,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2969,13 +2978,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489798.9642616356</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R22" t="n">
-        <v>7141012.591141199</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3029,22 +3038,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111479788</v>
+        <v>111481816</v>
       </c>
       <c r="B23" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3057,21 +3066,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3081,13 +3090,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489770.4450087619</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R23" t="n">
-        <v>7140644.491144991</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3141,22 +3150,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111479776</v>
+        <v>111481800</v>
       </c>
       <c r="B24" t="n">
-        <v>96368</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3169,21 +3178,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221952</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3193,13 +3202,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489790.1442766788</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R24" t="n">
-        <v>7140835.667408227</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3253,19 +3262,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111476425</v>
+        <v>111481807</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3305,13 +3314,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>490173.9669357104</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R25" t="n">
-        <v>7140836.575755515</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3365,22 +3374,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111481798</v>
+        <v>111479764</v>
       </c>
       <c r="B26" t="n">
-        <v>90087</v>
+        <v>73696</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3389,25 +3398,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3298</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3417,13 +3426,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489695.5635774976</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R26" t="n">
-        <v>7140664.64561378</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3477,22 +3486,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111481814</v>
+        <v>111479792</v>
       </c>
       <c r="B27" t="n">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3505,21 +3514,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3529,13 +3538,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489733.9516960242</v>
+        <v>489806.0675517298</v>
       </c>
       <c r="R27" t="n">
-        <v>7141001.992384473</v>
+        <v>7140673.795043741</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3589,12 +3598,12 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3713,10 +3722,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111479769</v>
+        <v>111481799</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3725,25 +3734,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3753,13 +3762,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489821.4272813612</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R29" t="n">
-        <v>7140733.021041368</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3813,22 +3822,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111479791</v>
+        <v>111476425</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3841,21 +3850,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3865,10 +3874,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489746.2870670959</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R30" t="n">
-        <v>7140675.292557321</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3925,22 +3934,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111481810</v>
+        <v>111479770</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3949,25 +3958,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3977,13 +3986,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489736.1248279089</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R31" t="n">
-        <v>7141004.148289163</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4031,25 +4040,26 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111479780</v>
+        <v>111481808</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4089,13 +4099,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489832.05664893</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R32" t="n">
-        <v>7140672.410641763</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4149,12 +4159,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
@@ -4273,10 +4283,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111479775</v>
+        <v>111481798</v>
       </c>
       <c r="B34" t="n">
-        <v>78605</v>
+        <v>90087</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4289,21 +4299,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6462</v>
+        <v>3298</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4313,13 +4323,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489737.5515961287</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R34" t="n">
-        <v>7140654.120246909</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4373,19 +4383,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111481807</v>
+        <v>111476448</v>
       </c>
       <c r="B35" t="n">
         <v>78578</v>
@@ -4425,13 +4435,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489622.997758265</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R35" t="n">
-        <v>7140856.56393067</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4485,22 +4495,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111481808</v>
+        <v>111481813</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4509,25 +4519,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4537,10 +4547,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489618.6049431616</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R36" t="n">
-        <v>7140966.471951276</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4609,10 +4619,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111481800</v>
+        <v>111481815</v>
       </c>
       <c r="B37" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4621,25 +4631,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4649,10 +4659,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489821.9038792807</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R37" t="n">
-        <v>7141006.890577544</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4721,10 +4731,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111481815</v>
+        <v>111479769</v>
       </c>
       <c r="B38" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4737,21 +4747,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4761,13 +4771,13 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489677.1923899396</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R38" t="n">
-        <v>7140998.289362041</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4821,22 +4831,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111479772</v>
+        <v>111479788</v>
       </c>
       <c r="B39" t="n">
-        <v>90087</v>
+        <v>89419</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4845,25 +4855,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3298</v>
+        <v>1204</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4873,10 +4883,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489831.4084576743</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R39" t="n">
-        <v>7140738.179997628</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4927,7 +4937,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4946,7 +4955,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111476418</v>
+        <v>111479772</v>
       </c>
       <c r="B40" t="n">
         <v>90087</v>
@@ -4986,10 +4995,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489778.5245607619</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R40" t="n">
-        <v>7140728.837106518</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5040,28 +5049,29 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111479764</v>
+        <v>111479780</v>
       </c>
       <c r="B41" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5074,21 +5084,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5098,10 +5108,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489825.6631737759</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R41" t="n">
-        <v>7140704.017605744</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5170,10 +5180,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111479785</v>
+        <v>111481814</v>
       </c>
       <c r="B42" t="n">
-        <v>89590</v>
+        <v>78612</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5182,25 +5192,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48</v>
+        <v>6464</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5210,13 +5220,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489747.1332446564</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R42" t="n">
-        <v>7140669.232153737</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5270,22 +5280,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111479763</v>
+        <v>111481801</v>
       </c>
       <c r="B43" t="n">
-        <v>73696</v>
+        <v>78605</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5294,25 +5304,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6440</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5322,13 +5332,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489823.5173122073</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R43" t="n">
-        <v>7140970.976177845</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5382,22 +5392,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111479784</v>
+        <v>111481810</v>
       </c>
       <c r="B44" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5406,25 +5416,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5434,13 +5444,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489806.0819462601</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R44" t="n">
-        <v>7140678.121827234</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5494,22 +5504,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111481811</v>
+        <v>111479768</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5522,21 +5532,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5546,13 +5556,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489798.9642616356</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R45" t="n">
-        <v>7141012.591141199</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5606,22 +5616,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111481799</v>
+        <v>111479791</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5630,25 +5640,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5658,13 +5668,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489701.4212471162</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R46" t="n">
-        <v>7140989.555053207</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5718,22 +5728,22 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479770</v>
+        <v>111479781</v>
       </c>
       <c r="B47" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5742,25 +5752,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5770,10 +5780,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489808.3171113685</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R47" t="n">
-        <v>7140829.11698899</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5824,7 +5834,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5843,10 +5852,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111492266</v>
+        <v>111492260</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5859,21 +5868,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5883,10 +5892,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490044.5119551711</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R48" t="n">
-        <v>7140725.797964292</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5955,10 +5964,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111480298</v>
+        <v>111492253</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5971,21 +5980,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5995,10 +6004,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>489766.2095541009</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R49" t="n">
-        <v>7140673.495220769</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6055,22 +6064,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111480446</v>
+        <v>111492261</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6083,21 +6092,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6107,10 +6116,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>489877.1088730107</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R50" t="n">
-        <v>7140933.591242422</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6167,19 +6176,19 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111492259</v>
+        <v>111492262</v>
       </c>
       <c r="B51" t="n">
         <v>78579</v>
@@ -6219,10 +6228,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>490044.5091435921</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R51" t="n">
-        <v>7140724.932621562</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6291,10 +6300,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111492280</v>
+        <v>111480384</v>
       </c>
       <c r="B52" t="n">
-        <v>90351</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6303,25 +6312,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4787</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6331,10 +6340,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489771.1399207082</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R52" t="n">
-        <v>7140982.399260296</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6391,22 +6400,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111492254</v>
+        <v>111480236</v>
       </c>
       <c r="B53" t="n">
-        <v>73696</v>
+        <v>89686</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6419,21 +6428,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6443,10 +6452,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>489798.4158412284</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R53" t="n">
-        <v>7140977.981913811</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6503,22 +6512,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111480496</v>
+        <v>111492270</v>
       </c>
       <c r="B54" t="n">
-        <v>85715</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6531,21 +6540,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6555,10 +6564,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>489789.3052706157</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R54" t="n">
-        <v>7140843.89074567</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6615,22 +6624,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111492278</v>
+        <v>111480395</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6643,21 +6652,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6667,10 +6676,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490007.7957919214</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R55" t="n">
-        <v>7141024.449337299</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6727,22 +6736,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111492262</v>
+        <v>111480446</v>
       </c>
       <c r="B56" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6755,21 +6764,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6779,10 +6788,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>489875.6449040856</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R56" t="n">
-        <v>7140883.841297399</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6839,22 +6848,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111480423</v>
+        <v>111492277</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>73683</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6863,25 +6872,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>306</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6891,10 +6900,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>490169.5447032704</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R57" t="n">
-        <v>7140808.466902939</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6951,22 +6960,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111480335</v>
+        <v>111480298</v>
       </c>
       <c r="B58" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6975,25 +6984,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7003,10 +7012,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489776.7843540448</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R58" t="n">
-        <v>7140856.479597869</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7075,7 +7084,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111492270</v>
+        <v>111492268</v>
       </c>
       <c r="B59" t="n">
         <v>78578</v>
@@ -7115,10 +7124,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>490022.0059880563</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R59" t="n">
-        <v>7140998.444884341</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7187,10 +7196,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111492279</v>
+        <v>111492281</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7203,21 +7212,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7227,10 +7236,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>489883.9159544517</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R60" t="n">
-        <v>7140764.831883652</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7299,10 +7308,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111480295</v>
+        <v>111492264</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7315,21 +7324,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7339,10 +7348,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>489778.091163906</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R61" t="n">
-        <v>7140858.638525736</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7399,22 +7408,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111480293</v>
+        <v>111492283</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7423,25 +7432,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7451,10 +7460,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>489876.6856929233</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R62" t="n">
-        <v>7140936.621166581</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7511,19 +7520,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111480296</v>
+        <v>111492267</v>
       </c>
       <c r="B63" t="n">
         <v>78578</v>
@@ -7563,10 +7572,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>489802.401819757</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R63" t="n">
-        <v>7140743.901159636</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7623,22 +7632,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111492257</v>
+        <v>111480294</v>
       </c>
       <c r="B64" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7647,25 +7656,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7675,10 +7684,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>489807.3341186864</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R64" t="n">
-        <v>7140663.839095047</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7735,22 +7744,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111480395</v>
+        <v>111480424</v>
       </c>
       <c r="B65" t="n">
-        <v>89419</v>
+        <v>89423</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7763,21 +7772,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7787,10 +7796,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>490032.4114640003</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R65" t="n">
-        <v>7140734.923483816</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7859,10 +7868,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111492277</v>
+        <v>111480296</v>
       </c>
       <c r="B66" t="n">
-        <v>73683</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7871,25 +7880,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>306</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7899,10 +7908,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>490006.489164856</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R66" t="n">
-        <v>7140889.468873618</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7959,22 +7968,22 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111492283</v>
+        <v>111480297</v>
       </c>
       <c r="B67" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7983,25 +7992,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8011,10 +8020,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>489807.3341186864</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R67" t="n">
-        <v>7140663.839095047</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8071,22 +8080,22 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111480384</v>
+        <v>111480498</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>85715</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8095,25 +8104,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>510</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8123,10 +8132,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489794.5838017719</v>
+        <v>489787.1248523716</v>
       </c>
       <c r="R68" t="n">
-        <v>7140737.869752969</v>
+        <v>7140839.571414692</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8195,10 +8204,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111480236</v>
+        <v>111492274</v>
       </c>
       <c r="B69" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8211,21 +8220,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8235,10 +8244,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489743.6066249603</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R69" t="n">
-        <v>7140651.07116806</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8295,19 +8304,19 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111492273</v>
+        <v>111492275</v>
       </c>
       <c r="B70" t="n">
         <v>78578</v>
@@ -8347,10 +8356,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>489874.3581914994</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R70" t="n">
-        <v>7140887.739431102</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8419,10 +8428,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111492276</v>
+        <v>111480335</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8431,25 +8440,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8459,10 +8468,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>489764.8000431156</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R71" t="n">
-        <v>7140640.615804542</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8519,22 +8528,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111480445</v>
+        <v>111480291</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8547,21 +8556,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8571,10 +8580,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>490117.731828619</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R72" t="n">
-        <v>7140861.85080409</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8643,10 +8652,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111492253</v>
+        <v>111492282</v>
       </c>
       <c r="B73" t="n">
-        <v>73696</v>
+        <v>78611</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8655,25 +8664,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8683,10 +8692,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>490012.5186072908</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R73" t="n">
-        <v>7140878.632872825</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8755,10 +8764,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111492255</v>
+        <v>111480383</v>
       </c>
       <c r="B74" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8767,25 +8776,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8795,10 +8804,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>489860.3922942375</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R74" t="n">
-        <v>7140725.536366037</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8855,19 +8864,19 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111492269</v>
+        <v>111492266</v>
       </c>
       <c r="B75" t="n">
         <v>78578</v>
@@ -8907,10 +8916,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>490029.82430114</v>
+        <v>490044.5119551711</v>
       </c>
       <c r="R75" t="n">
-        <v>7141004.908987134</v>
+        <v>7140725.797964292</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -8979,10 +8988,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111492267</v>
+        <v>111480423</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8995,21 +9004,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9019,10 +9028,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>490129.0741084609</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R76" t="n">
-        <v>7140751.917492756</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9079,22 +9088,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111480297</v>
+        <v>111492259</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9107,21 +9116,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9131,10 +9140,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>489825.6732306023</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R77" t="n">
-        <v>7140707.046325015</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9191,22 +9200,22 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111492282</v>
+        <v>111492273</v>
       </c>
       <c r="B78" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9215,25 +9224,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9243,10 +9252,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>490022.0059880563</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R78" t="n">
-        <v>7140998.444884341</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9315,7 +9324,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111492268</v>
+        <v>111480295</v>
       </c>
       <c r="B79" t="n">
         <v>78578</v>
@@ -9355,10 +9364,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>490139.7872713782</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R79" t="n">
-        <v>7140850.097995443</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9415,19 +9424,19 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111480294</v>
+        <v>111480293</v>
       </c>
       <c r="B80" t="n">
         <v>78578</v>
@@ -9467,10 +9476,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>489770.4033965064</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R80" t="n">
-        <v>7140891.545973015</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9539,10 +9548,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111480498</v>
+        <v>111492257</v>
       </c>
       <c r="B81" t="n">
-        <v>85715</v>
+        <v>78605</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9551,25 +9560,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>510</v>
+        <v>6462</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9579,10 +9588,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>489787.1248523716</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R81" t="n">
-        <v>7140839.571414692</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9639,22 +9648,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492256</v>
+        <v>111492254</v>
       </c>
       <c r="B82" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9667,21 +9676,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9691,10 +9700,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>490019.4497180494</v>
+        <v>489798.4158412284</v>
       </c>
       <c r="R82" t="n">
-        <v>7140878.610287084</v>
+        <v>7140977.981913811</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9763,7 +9772,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492275</v>
+        <v>111492269</v>
       </c>
       <c r="B83" t="n">
         <v>78578</v>
@@ -9803,10 +9812,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>489806.4619114766</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R83" t="n">
-        <v>7140662.11125663</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9875,10 +9884,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111480383</v>
+        <v>111492280</v>
       </c>
       <c r="B84" t="n">
-        <v>96348</v>
+        <v>90351</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9887,25 +9896,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>4787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9915,10 +9924,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>489804.554930158</v>
+        <v>489771.1399207082</v>
       </c>
       <c r="R84" t="n">
-        <v>7140739.999929952</v>
+        <v>7140982.399260296</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9975,22 +9984,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492260</v>
+        <v>111492279</v>
       </c>
       <c r="B85" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10003,21 +10012,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10027,10 +10036,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>490029.82430114</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R85" t="n">
-        <v>7141004.908987134</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10099,10 +10108,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492261</v>
+        <v>111492256</v>
       </c>
       <c r="B86" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10115,21 +10124,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10139,10 +10148,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>490022.003170063</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R86" t="n">
-        <v>7140997.579618414</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10211,7 +10220,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492274</v>
+        <v>111492272</v>
       </c>
       <c r="B87" t="n">
         <v>78578</v>
@@ -10251,10 +10260,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>489910.1009328889</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R87" t="n">
-        <v>7140823.155509771</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10323,10 +10332,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492272</v>
+        <v>111492278</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10339,21 +10348,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10363,10 +10372,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>489915.5371736808</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R88" t="n">
-        <v>7140895.391365884</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10435,10 +10444,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492281</v>
+        <v>111492271</v>
       </c>
       <c r="B89" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10451,21 +10460,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10475,10 +10484,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>490000.098590193</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R89" t="n">
-        <v>7140922.37116597</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10547,10 +10556,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111480291</v>
+        <v>111492255</v>
       </c>
       <c r="B90" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10563,21 +10572,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10587,10 +10596,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>490035.394719597</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R90" t="n">
-        <v>7140719.770132355</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10647,22 +10656,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111480424</v>
+        <v>111492276</v>
       </c>
       <c r="B91" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10675,21 +10684,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10699,10 +10708,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>489748.4256788645</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R91" t="n">
-        <v>7140667.064407941</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10759,22 +10768,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111492264</v>
+        <v>111480496</v>
       </c>
       <c r="B92" t="n">
-        <v>78579</v>
+        <v>85715</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10787,21 +10796,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2081</v>
+        <v>510</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10811,10 +10820,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>489910.1009328889</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R92" t="n">
-        <v>7140823.155509771</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10871,22 +10880,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111492271</v>
+        <v>111480445</v>
       </c>
       <c r="B93" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10899,21 +10908,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10923,10 +10932,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>490018.4433133323</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R93" t="n">
-        <v>7140968.604357163</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10983,22 +10992,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111480185</v>
+        <v>111480210</v>
       </c>
       <c r="B94" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11007,25 +11016,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11035,10 +11044,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>489776.7843540448</v>
+        <v>489805.4242373512</v>
       </c>
       <c r="R94" t="n">
-        <v>7140856.479597869</v>
+        <v>7140740.862385634</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11107,10 +11116,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111480008</v>
+        <v>111480072</v>
       </c>
       <c r="B95" t="n">
-        <v>103273</v>
+        <v>89405</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11119,25 +11128,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>221725</v>
+        <v>1202</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11147,10 +11156,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>490011.645166218</v>
+        <v>489781.8762993646</v>
       </c>
       <c r="R95" t="n">
-        <v>7140876.472447483</v>
+        <v>7140694.644355448</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11219,10 +11228,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480186</v>
+        <v>111480141</v>
       </c>
       <c r="B96" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11231,25 +11240,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11259,10 +11268,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>489758.3970701658</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R96" t="n">
-        <v>7140669.194484891</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11331,10 +11340,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480210</v>
+        <v>111480161</v>
       </c>
       <c r="B97" t="n">
-        <v>78512</v>
+        <v>96368</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11347,21 +11356,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6456</v>
+        <v>221952</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11371,10 +11380,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>489805.4242373512</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R97" t="n">
-        <v>7140740.862385634</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11667,10 +11676,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480072</v>
+        <v>111480185</v>
       </c>
       <c r="B100" t="n">
-        <v>89405</v>
+        <v>78579</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11683,21 +11692,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11707,10 +11716,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>489781.8762993646</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R100" t="n">
-        <v>7140694.644355448</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11779,10 +11788,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480043</v>
+        <v>111480008</v>
       </c>
       <c r="B101" t="n">
-        <v>73696</v>
+        <v>103273</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11791,25 +11800,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6440</v>
+        <v>221725</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11819,10 +11828,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>489811.4112532215</v>
+        <v>490011.645166218</v>
       </c>
       <c r="R101" t="n">
-        <v>7140977.938669946</v>
+        <v>7140876.472447483</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11891,10 +11900,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480141</v>
+        <v>111480043</v>
       </c>
       <c r="B102" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11903,25 +11912,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11931,10 +11940,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>489770.4033965064</v>
+        <v>489811.4112532215</v>
       </c>
       <c r="R102" t="n">
-        <v>7140891.545973015</v>
+        <v>7140977.938669946</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12003,10 +12012,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480069</v>
+        <v>111480087</v>
       </c>
       <c r="B103" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12015,25 +12024,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12043,10 +12052,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>489808.3789904107</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R103" t="n">
-        <v>7140977.94875525</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12115,10 +12124,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480161</v>
+        <v>111480069</v>
       </c>
       <c r="B104" t="n">
-        <v>96368</v>
+        <v>89405</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12127,25 +12136,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12155,10 +12164,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>490135.9205220507</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R104" t="n">
-        <v>7140860.061565773</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12227,10 +12236,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480087</v>
+        <v>111480186</v>
       </c>
       <c r="B105" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12239,25 +12248,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12267,10 +12276,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>489792.3874608531</v>
+        <v>489758.3970701658</v>
       </c>
       <c r="R105" t="n">
-        <v>7140728.790892559</v>
+        <v>7140669.194484891</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -2145,10 +2145,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111476452</v>
+        <v>111479776</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,25 +2157,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489815.0024043967</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R15" t="n">
-        <v>7140755.108741223</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2245,22 +2245,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479776</v>
+        <v>111479784</v>
       </c>
       <c r="B16" t="n">
-        <v>96368</v>
+        <v>78612</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2273,21 +2273,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489790.1442766788</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R16" t="n">
-        <v>7140835.667408227</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111479784</v>
+        <v>111476452</v>
       </c>
       <c r="B17" t="n">
-        <v>78612</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,25 +2381,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6464</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489806.0819462601</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R17" t="n">
-        <v>7140678.121827234</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2469,22 +2469,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111481809</v>
+        <v>111476434</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2497,21 +2497,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489716.1870822187</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R18" t="n">
-        <v>7141000.754049809</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2581,22 +2581,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111476434</v>
+        <v>111476447</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2609,21 +2609,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>490140.7149260837</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R19" t="n">
-        <v>7140869.131914983</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111476447</v>
+        <v>111481809</v>
       </c>
       <c r="B20" t="n">
         <v>78578</v>
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489901.6080066679</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R20" t="n">
-        <v>7140875.102526958</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2805,12 +2805,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481804</v>
+        <v>111481799</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3622,25 +3622,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489649.3234224396</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R28" t="n">
-        <v>7140827.054006468</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111481799</v>
+        <v>111481804</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3734,25 +3734,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3762,10 +3762,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489701.4212471162</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R29" t="n">
-        <v>7140989.555053207</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>

--- a/artfynd/A 55937-2020.xlsx
+++ b/artfynd/A 55937-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111476439</v>
+        <v>111481804</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489778.5245607619</v>
+        <v>489649.3234224396</v>
       </c>
       <c r="R2" t="n">
-        <v>7140728.837106518</v>
+        <v>7140827.054006468</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476451</v>
+        <v>111481813</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>78612</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,49 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6464</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489837.4677177655</v>
+        <v>489665.5194976524</v>
       </c>
       <c r="R3" t="n">
-        <v>7140736.429197143</v>
+        <v>7140748.253840107</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,29 +886,28 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111479775</v>
+        <v>111476451</v>
       </c>
       <c r="B4" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,38 +916,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489737.5515961287</v>
+        <v>489837.4677177655</v>
       </c>
       <c r="R4" t="n">
-        <v>7140654.120246909</v>
+        <v>7140736.429197143</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,25 +1006,26 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111481803</v>
+        <v>111476445</v>
       </c>
       <c r="B5" t="n">
         <v>78578</v>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489663.3563524204</v>
+        <v>490173.9669357104</v>
       </c>
       <c r="R5" t="n">
-        <v>7140749.12648284</v>
+        <v>7140836.575755515</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1125,19 +1125,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111476446</v>
+        <v>111476448</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490023.2829794704</v>
+        <v>489876.9016010665</v>
       </c>
       <c r="R6" t="n">
-        <v>7140991.518518048</v>
+        <v>7140870.85750405</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111476422</v>
+        <v>111476434</v>
       </c>
       <c r="B7" t="n">
-        <v>78579</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,21 +1265,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>490176.9771446643</v>
+        <v>490140.7149260837</v>
       </c>
       <c r="R7" t="n">
-        <v>7140829.643533329</v>
+        <v>7140869.131914983</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111479785</v>
+        <v>111476446</v>
       </c>
       <c r="B8" t="n">
-        <v>89590</v>
+        <v>78578</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1373,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489747.1332446564</v>
+        <v>490023.2829794704</v>
       </c>
       <c r="R8" t="n">
-        <v>7140669.232153737</v>
+        <v>7140991.518518048</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1461,22 +1461,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111481811</v>
+        <v>111479764</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,21 +1489,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,13 +1513,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489798.9642616356</v>
+        <v>489825.6631737759</v>
       </c>
       <c r="R9" t="n">
-        <v>7141012.591141199</v>
+        <v>7140704.017605744</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1573,22 +1573,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111481802</v>
+        <v>111479792</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,25 +1597,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489735.2410806222</v>
+        <v>489806.0675517298</v>
       </c>
       <c r="R10" t="n">
-        <v>7140998.959601722</v>
+        <v>7140673.795043741</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1685,19 +1685,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111476429</v>
+        <v>111476427</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489815.4226730386</v>
+        <v>489901.6080066679</v>
       </c>
       <c r="R11" t="n">
-        <v>7140751.213293974</v>
+        <v>7140875.102526958</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1809,10 +1809,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111481805</v>
+        <v>111476433</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,25 +1821,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489644.1308507675</v>
+        <v>489815.0024043967</v>
       </c>
       <c r="R12" t="n">
-        <v>7140828.802200046</v>
+        <v>7140755.108741223</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1909,22 +1909,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111481812</v>
+        <v>111479763</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1937,21 +1937,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489776.5506159168</v>
+        <v>489823.5173122073</v>
       </c>
       <c r="R13" t="n">
-        <v>7140656.585996962</v>
+        <v>7140970.976177845</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2021,22 +2021,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111479763</v>
+        <v>111479780</v>
       </c>
       <c r="B14" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2049,21 +2049,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489823.5173122073</v>
+        <v>489832.05664893</v>
       </c>
       <c r="R14" t="n">
-        <v>7140970.976177845</v>
+        <v>7140672.410641763</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111479776</v>
+        <v>111481815</v>
       </c>
       <c r="B15" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,25 +2157,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489790.1442766788</v>
+        <v>489677.1923899396</v>
       </c>
       <c r="R15" t="n">
-        <v>7140835.667408227</v>
+        <v>7140998.289362041</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2245,22 +2245,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111479784</v>
+        <v>111479788</v>
       </c>
       <c r="B16" t="n">
-        <v>78612</v>
+        <v>89419</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,25 +2269,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6464</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489806.0819462601</v>
+        <v>489770.4450087619</v>
       </c>
       <c r="R16" t="n">
-        <v>7140678.121827234</v>
+        <v>7140644.491144991</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111476452</v>
+        <v>111479781</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,25 +2381,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489815.0024043967</v>
+        <v>489808.2480602256</v>
       </c>
       <c r="R17" t="n">
-        <v>7140755.108741223</v>
+        <v>7140678.114621677</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2469,22 +2469,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111476434</v>
+        <v>111476442</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>78579</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2497,21 +2497,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>490140.7149260837</v>
+        <v>490176.9771446643</v>
       </c>
       <c r="R18" t="n">
-        <v>7140869.131914983</v>
+        <v>7140829.643533329</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111476447</v>
+        <v>111479775</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,25 +2605,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489901.6080066679</v>
+        <v>489737.5515961287</v>
       </c>
       <c r="R19" t="n">
-        <v>7140875.102526958</v>
+        <v>7140654.120246909</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,22 +2693,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111481809</v>
+        <v>111481801</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2717,25 +2717,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489716.1870822187</v>
+        <v>489644.5611277207</v>
       </c>
       <c r="R20" t="n">
-        <v>7141000.754049809</v>
+        <v>7140827.935422103</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111476450</v>
+        <v>111481808</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2829,49 +2829,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Svevhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489998.828683018</v>
+        <v>489618.6049431616</v>
       </c>
       <c r="R21" t="n">
-        <v>7140931.460910414</v>
+        <v>7140966.471951276</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2919,29 +2911,28 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111476441</v>
+        <v>111481805</v>
       </c>
       <c r="B22" t="n">
-        <v>96368</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2950,25 +2941,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2978,13 +2969,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489865.878933667</v>
+        <v>489644.1308507675</v>
       </c>
       <c r="R22" t="n">
-        <v>7140943.579226637</v>
+        <v>7140828.802200046</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3038,22 +3029,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111481816</v>
+        <v>111481803</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3066,21 +3057,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3090,10 +3081,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489798.9642616356</v>
+        <v>489663.3563524204</v>
       </c>
       <c r="R23" t="n">
-        <v>7141012.591141199</v>
+        <v>7140749.12648284</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3162,10 +3153,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111481800</v>
+        <v>111476431</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3174,25 +3165,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3202,13 +3193,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489821.9038792807</v>
+        <v>489998.828683018</v>
       </c>
       <c r="R24" t="n">
-        <v>7141006.890577544</v>
+        <v>7140931.460910414</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3262,22 +3253,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111481807</v>
+        <v>111476441</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3286,25 +3277,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3314,13 +3305,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489622.997758265</v>
+        <v>489865.878933667</v>
       </c>
       <c r="R25" t="n">
-        <v>7140856.56393067</v>
+        <v>7140943.579226637</v>
       </c>
       <c r="S25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3374,22 +3365,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111479764</v>
+        <v>111479768</v>
       </c>
       <c r="B26" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3402,21 +3393,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3426,10 +3417,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489825.6631737759</v>
+        <v>489784.979046855</v>
       </c>
       <c r="R26" t="n">
-        <v>7140704.017605744</v>
+        <v>7140845.63580357</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3498,10 +3489,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111479792</v>
+        <v>111479770</v>
       </c>
       <c r="B27" t="n">
-        <v>78611</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3514,21 +3505,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6463</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3538,10 +3529,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489806.0675517298</v>
+        <v>489808.3171113685</v>
       </c>
       <c r="R27" t="n">
-        <v>7140673.795043741</v>
+        <v>7140829.11698899</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3592,6 +3583,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3610,10 +3602,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111481799</v>
+        <v>111479769</v>
       </c>
       <c r="B28" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3622,25 +3614,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3650,13 +3642,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489701.4212471162</v>
+        <v>489821.4272813612</v>
       </c>
       <c r="R28" t="n">
-        <v>7140989.555053207</v>
+        <v>7140733.021041368</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3710,22 +3702,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111481804</v>
+        <v>111481800</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3734,25 +3726,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3762,10 +3754,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489649.3234224396</v>
+        <v>489821.9038792807</v>
       </c>
       <c r="R29" t="n">
-        <v>7140827.054006468</v>
+        <v>7141006.890577544</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3834,10 +3826,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111476425</v>
+        <v>111481802</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3850,21 +3842,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3874,13 +3866,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>490173.9669357104</v>
+        <v>489735.2410806222</v>
       </c>
       <c r="R30" t="n">
-        <v>7140836.575755515</v>
+        <v>7140998.959601722</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3934,22 +3926,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111479770</v>
+        <v>111481809</v>
       </c>
       <c r="B31" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3958,25 +3950,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3986,13 +3978,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489808.3171113685</v>
+        <v>489716.1870822187</v>
       </c>
       <c r="R31" t="n">
-        <v>7140829.11698899</v>
+        <v>7141000.754049809</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4040,29 +4032,28 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111481808</v>
+        <v>111476418</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4071,25 +4062,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4099,13 +4090,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489618.6049431616</v>
+        <v>489778.5245607619</v>
       </c>
       <c r="R32" t="n">
-        <v>7140966.471951276</v>
+        <v>7140728.837106518</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4159,22 +4150,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111479767</v>
+        <v>111479776</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>96368</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4183,25 +4174,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4211,10 +4202,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>490050.1831033034</v>
+        <v>489790.1442766788</v>
       </c>
       <c r="R33" t="n">
-        <v>7140737.894443879</v>
+        <v>7140835.667408227</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4283,10 +4274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111481798</v>
+        <v>111481812</v>
       </c>
       <c r="B34" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4295,25 +4286,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4323,10 +4314,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489695.5635774976</v>
+        <v>489776.5506159168</v>
       </c>
       <c r="R34" t="n">
-        <v>7140664.64561378</v>
+        <v>7140656.585996962</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4395,10 +4386,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111476448</v>
+        <v>111481798</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>90087</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4407,25 +4398,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>3298</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4435,13 +4426,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489876.9016010665</v>
+        <v>489695.5635774976</v>
       </c>
       <c r="R35" t="n">
-        <v>7140870.85750405</v>
+        <v>7140664.64561378</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4495,22 +4486,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111481813</v>
+        <v>111476429</v>
       </c>
       <c r="B36" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4519,25 +4510,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4547,13 +4538,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489665.5194976524</v>
+        <v>489815.4226730386</v>
       </c>
       <c r="R36" t="n">
-        <v>7140748.253840107</v>
+        <v>7140751.213293974</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4607,22 +4598,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111481815</v>
+        <v>111479767</v>
       </c>
       <c r="B37" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4635,21 +4626,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4659,13 +4650,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489677.1923899396</v>
+        <v>490050.1831033034</v>
       </c>
       <c r="R37" t="n">
-        <v>7140998.289362041</v>
+        <v>7140737.894443879</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4719,22 +4710,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111479769</v>
+        <v>111479784</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>78612</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4743,25 +4734,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4771,10 +4762,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489821.4272813612</v>
+        <v>489806.0819462601</v>
       </c>
       <c r="R38" t="n">
-        <v>7140733.021041368</v>
+        <v>7140678.121827234</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4843,10 +4834,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111479788</v>
+        <v>111479772</v>
       </c>
       <c r="B39" t="n">
-        <v>89419</v>
+        <v>90087</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4855,25 +4846,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1204</v>
+        <v>3298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4883,10 +4874,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>489770.4450087619</v>
+        <v>489831.4084576743</v>
       </c>
       <c r="R39" t="n">
-        <v>7140644.491144991</v>
+        <v>7140738.179997628</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4937,6 +4928,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4955,7 +4947,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111479772</v>
+        <v>111481799</v>
       </c>
       <c r="B40" t="n">
         <v>90087</v>
@@ -4995,13 +4987,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>489831.4084576743</v>
+        <v>489701.4212471162</v>
       </c>
       <c r="R40" t="n">
-        <v>7140738.179997628</v>
+        <v>7140989.555053207</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5049,29 +5041,28 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111479780</v>
+        <v>111479785</v>
       </c>
       <c r="B41" t="n">
-        <v>78578</v>
+        <v>89590</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5080,25 +5071,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5108,10 +5099,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>489832.05664893</v>
+        <v>489747.1332446564</v>
       </c>
       <c r="R41" t="n">
-        <v>7140672.410641763</v>
+        <v>7140669.232153737</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5180,10 +5171,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111481814</v>
+        <v>111479791</v>
       </c>
       <c r="B42" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5192,25 +5183,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5220,13 +5211,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>489733.9516960242</v>
+        <v>489746.2870670959</v>
       </c>
       <c r="R42" t="n">
-        <v>7141001.992384473</v>
+        <v>7140675.292557321</v>
       </c>
       <c r="S42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5280,22 +5271,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Elias Blad</t>
+          <t>Jonathan Frendel</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111481801</v>
+        <v>111481816</v>
       </c>
       <c r="B43" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5304,25 +5295,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5332,10 +5323,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489644.5611277207</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R43" t="n">
-        <v>7140827.935422103</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5404,7 +5395,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111481810</v>
+        <v>111481811</v>
       </c>
       <c r="B44" t="n">
         <v>78578</v>
@@ -5444,10 +5435,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489736.1248279089</v>
+        <v>489798.9642616356</v>
       </c>
       <c r="R44" t="n">
-        <v>7141004.148289163</v>
+        <v>7141012.591141199</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5516,10 +5507,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111479768</v>
+        <v>111481814</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>78612</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5528,25 +5519,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5556,13 +5547,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489784.979046855</v>
+        <v>489733.9516960242</v>
       </c>
       <c r="R45" t="n">
-        <v>7140845.63580357</v>
+        <v>7141001.992384473</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5616,22 +5607,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111479791</v>
+        <v>111481807</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5644,21 +5635,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5668,13 +5659,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489746.2870670959</v>
+        <v>489622.997758265</v>
       </c>
       <c r="R46" t="n">
-        <v>7140675.292557321</v>
+        <v>7140856.56393067</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5728,19 +5719,19 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111479781</v>
+        <v>111481810</v>
       </c>
       <c r="B47" t="n">
         <v>78578</v>
@@ -5780,13 +5771,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>489808.2480602256</v>
+        <v>489736.1248279089</v>
       </c>
       <c r="R47" t="n">
-        <v>7140678.114621677</v>
+        <v>7141004.148289163</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5840,22 +5831,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Jonathan Frendel</t>
+          <t>Elias Blad</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Jonathan Frendel, Astrid Blomberg, Elias Blad, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
+          <t>Elias Blad, Astrid Blomberg, Elicia Olsson, Elvira Klang, Filippa Paperin, Iris Elmér, Ivar Anderberg, Jonathan Frendel, Kai Strömberg, Karl Soler Kinnerbäck, Melvin Lewin, Signe Propst, Tore Dahlberg</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111492260</v>
+        <v>111492268</v>
       </c>
       <c r="B48" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5868,21 +5859,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5892,10 +5883,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>490029.82430114</v>
+        <v>490139.7872713782</v>
       </c>
       <c r="R48" t="n">
-        <v>7141004.908987134</v>
+        <v>7140850.097995443</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -5964,10 +5955,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111492253</v>
+        <v>111480446</v>
       </c>
       <c r="B49" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5980,21 +5971,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6004,10 +5995,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>490012.5186072908</v>
+        <v>489877.1088730107</v>
       </c>
       <c r="R49" t="n">
-        <v>7140878.632872825</v>
+        <v>7140933.591242422</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6064,19 +6055,19 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111492261</v>
+        <v>111492262</v>
       </c>
       <c r="B50" t="n">
         <v>78579</v>
@@ -6116,10 +6107,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>490022.003170063</v>
+        <v>489875.6449040856</v>
       </c>
       <c r="R50" t="n">
-        <v>7140997.579618414</v>
+        <v>7140883.841297399</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6188,10 +6179,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111492262</v>
+        <v>111492253</v>
       </c>
       <c r="B51" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6204,21 +6195,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6228,10 +6219,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>489875.6449040856</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R51" t="n">
-        <v>7140883.841297399</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6300,10 +6291,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111480384</v>
+        <v>111492274</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6312,25 +6303,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6340,10 +6331,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489794.5838017719</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R52" t="n">
-        <v>7140737.869752969</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6400,22 +6391,22 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111480236</v>
+        <v>111492255</v>
       </c>
       <c r="B53" t="n">
-        <v>89686</v>
+        <v>73696</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6428,21 +6419,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6452,10 +6443,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>489743.6066249603</v>
+        <v>489860.3922942375</v>
       </c>
       <c r="R53" t="n">
-        <v>7140651.07116806</v>
+        <v>7140725.536366037</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6512,22 +6503,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111492270</v>
+        <v>111492281</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6540,21 +6531,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6564,10 +6555,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>490022.0059880563</v>
+        <v>490000.098590193</v>
       </c>
       <c r="R54" t="n">
-        <v>7140998.444884341</v>
+        <v>7140922.37116597</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6636,10 +6627,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111480395</v>
+        <v>111480296</v>
       </c>
       <c r="B55" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6652,21 +6643,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6676,10 +6667,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>490032.4114640003</v>
+        <v>489802.401819757</v>
       </c>
       <c r="R55" t="n">
-        <v>7140734.923483816</v>
+        <v>7140743.901159636</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6748,10 +6739,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111480446</v>
+        <v>111480294</v>
       </c>
       <c r="B56" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6764,21 +6755,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6788,10 +6779,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>489877.1088730107</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R56" t="n">
-        <v>7140933.591242422</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6860,10 +6851,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111492277</v>
+        <v>111492282</v>
       </c>
       <c r="B57" t="n">
-        <v>73683</v>
+        <v>78611</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6876,21 +6867,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>306</v>
+        <v>6463</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6900,10 +6891,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>490006.489164856</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R57" t="n">
-        <v>7140889.468873618</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -6972,10 +6963,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111480298</v>
+        <v>111492256</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6988,21 +6979,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7012,10 +7003,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489766.2095541009</v>
+        <v>490019.4497180494</v>
       </c>
       <c r="R58" t="n">
-        <v>7140673.495220769</v>
+        <v>7140878.610287084</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7072,22 +7063,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111492268</v>
+        <v>111492283</v>
       </c>
       <c r="B59" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7096,25 +7087,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7124,10 +7115,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>490139.7872713782</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R59" t="n">
-        <v>7140850.097995443</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7196,10 +7187,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111492281</v>
+        <v>111480335</v>
       </c>
       <c r="B60" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7208,25 +7199,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7236,10 +7227,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>490000.098590193</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R60" t="n">
-        <v>7140922.37116597</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7296,22 +7287,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111492264</v>
+        <v>111480297</v>
       </c>
       <c r="B61" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7324,21 +7315,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7348,10 +7339,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>489910.1009328889</v>
+        <v>489825.6732306023</v>
       </c>
       <c r="R61" t="n">
-        <v>7140823.155509771</v>
+        <v>7140707.046325015</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7408,22 +7399,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111492283</v>
+        <v>111492267</v>
       </c>
       <c r="B62" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7432,25 +7423,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7460,10 +7451,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>489807.3341186864</v>
+        <v>490129.0741084609</v>
       </c>
       <c r="R62" t="n">
-        <v>7140663.839095047</v>
+        <v>7140751.917492756</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7532,10 +7523,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111492267</v>
+        <v>111480423</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7548,21 +7539,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7572,10 +7563,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>490129.0741084609</v>
+        <v>490169.5447032704</v>
       </c>
       <c r="R63" t="n">
-        <v>7140751.917492756</v>
+        <v>7140808.466902939</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7632,19 +7623,19 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111480294</v>
+        <v>111492271</v>
       </c>
       <c r="B64" t="n">
         <v>78578</v>
@@ -7684,10 +7675,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>489770.4033965064</v>
+        <v>490018.4433133323</v>
       </c>
       <c r="R64" t="n">
-        <v>7140891.545973015</v>
+        <v>7140968.604357163</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7744,22 +7735,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111480424</v>
+        <v>111492276</v>
       </c>
       <c r="B65" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7772,21 +7763,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7796,10 +7787,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>489748.4256788645</v>
+        <v>489764.8000431156</v>
       </c>
       <c r="R65" t="n">
-        <v>7140667.064407941</v>
+        <v>7140640.615804542</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7856,22 +7847,22 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111480296</v>
+        <v>111480395</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7884,21 +7875,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7908,10 +7899,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>489802.401819757</v>
+        <v>490032.4114640003</v>
       </c>
       <c r="R66" t="n">
-        <v>7140743.901159636</v>
+        <v>7140734.923483816</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -7980,7 +7971,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111480297</v>
+        <v>111480298</v>
       </c>
       <c r="B67" t="n">
         <v>78578</v>
@@ -8020,10 +8011,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>489825.6732306023</v>
+        <v>489766.2095541009</v>
       </c>
       <c r="R67" t="n">
-        <v>7140707.046325015</v>
+        <v>7140673.495220769</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8092,10 +8083,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111480498</v>
+        <v>111492278</v>
       </c>
       <c r="B68" t="n">
-        <v>85715</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8108,21 +8099,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8132,10 +8123,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489787.1248523716</v>
+        <v>490007.7957919214</v>
       </c>
       <c r="R68" t="n">
-        <v>7140839.571414692</v>
+        <v>7141024.449337299</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8192,22 +8183,22 @@
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111492274</v>
+        <v>111480384</v>
       </c>
       <c r="B69" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8216,25 +8207,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8244,10 +8235,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489910.1009328889</v>
+        <v>489794.5838017719</v>
       </c>
       <c r="R69" t="n">
-        <v>7140823.155509771</v>
+        <v>7140737.869752969</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8304,19 +8295,19 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111492275</v>
+        <v>111480291</v>
       </c>
       <c r="B70" t="n">
         <v>78578</v>
@@ -8356,10 +8347,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>489806.4619114766</v>
+        <v>490035.394719597</v>
       </c>
       <c r="R70" t="n">
-        <v>7140662.11125663</v>
+        <v>7140719.770132355</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8416,22 +8407,22 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111480335</v>
+        <v>111492269</v>
       </c>
       <c r="B71" t="n">
-        <v>78612</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8440,25 +8431,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8468,10 +8459,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>489776.7843540448</v>
+        <v>490029.82430114</v>
       </c>
       <c r="R71" t="n">
-        <v>7140856.479597869</v>
+        <v>7141004.908987134</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8528,19 +8519,19 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111480291</v>
+        <v>111492270</v>
       </c>
       <c r="B72" t="n">
         <v>78578</v>
@@ -8580,10 +8571,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>490035.394719597</v>
+        <v>490022.0059880563</v>
       </c>
       <c r="R72" t="n">
-        <v>7140719.770132355</v>
+        <v>7140998.444884341</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8640,22 +8631,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111492282</v>
+        <v>111492259</v>
       </c>
       <c r="B73" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8664,25 +8655,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8692,10 +8683,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>490022.0059880563</v>
+        <v>490044.5091435921</v>
       </c>
       <c r="R73" t="n">
-        <v>7140998.444884341</v>
+        <v>7140724.932621562</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8764,10 +8755,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111480383</v>
+        <v>111492277</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>73683</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8776,25 +8767,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>306</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8804,10 +8795,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>489804.554930158</v>
+        <v>490006.489164856</v>
       </c>
       <c r="R74" t="n">
-        <v>7140739.999929952</v>
+        <v>7140889.468873618</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8864,12 +8855,12 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
@@ -8988,7 +8979,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111480423</v>
+        <v>111480424</v>
       </c>
       <c r="B76" t="n">
         <v>89423</v>
@@ -9028,10 +9019,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>490169.5447032704</v>
+        <v>489748.4256788645</v>
       </c>
       <c r="R76" t="n">
-        <v>7140808.466902939</v>
+        <v>7140667.064407941</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9100,10 +9091,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111492259</v>
+        <v>111480236</v>
       </c>
       <c r="B77" t="n">
-        <v>78579</v>
+        <v>89686</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9116,21 +9107,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2081</v>
+        <v>658</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9140,10 +9131,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>490044.5091435921</v>
+        <v>489743.6066249603</v>
       </c>
       <c r="R77" t="n">
-        <v>7140724.932621562</v>
+        <v>7140651.07116806</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9200,19 +9191,19 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111492273</v>
+        <v>111480295</v>
       </c>
       <c r="B78" t="n">
         <v>78578</v>
@@ -9252,10 +9243,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>489874.3581914994</v>
+        <v>489778.091163906</v>
       </c>
       <c r="R78" t="n">
-        <v>7140887.739431102</v>
+        <v>7140858.638525736</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9312,22 +9303,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111480295</v>
+        <v>111492257</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9336,25 +9327,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9364,10 +9355,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>489778.091163906</v>
+        <v>489807.3341186864</v>
       </c>
       <c r="R79" t="n">
-        <v>7140858.638525736</v>
+        <v>7140663.839095047</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9424,22 +9415,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111480293</v>
+        <v>111480498</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>85715</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9452,21 +9443,21 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9476,10 +9467,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>489876.6856929233</v>
+        <v>489787.1248523716</v>
       </c>
       <c r="R80" t="n">
-        <v>7140936.621166581</v>
+        <v>7140839.571414692</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9548,10 +9539,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111492257</v>
+        <v>111492279</v>
       </c>
       <c r="B81" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9560,25 +9551,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9588,10 +9579,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>489807.3341186864</v>
+        <v>489883.9159544517</v>
       </c>
       <c r="R81" t="n">
-        <v>7140663.839095047</v>
+        <v>7140764.831883652</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9660,10 +9651,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111492254</v>
+        <v>111492264</v>
       </c>
       <c r="B82" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9676,21 +9667,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9700,10 +9691,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>489798.4158412284</v>
+        <v>489910.1009328889</v>
       </c>
       <c r="R82" t="n">
-        <v>7140977.981913811</v>
+        <v>7140823.155509771</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9772,10 +9763,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111492269</v>
+        <v>111492260</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9788,21 +9779,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9884,10 +9875,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111492280</v>
+        <v>111480445</v>
       </c>
       <c r="B84" t="n">
-        <v>90351</v>
+        <v>77515</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9896,25 +9887,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4787</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granriska</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lactarius zonarioides</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Kühner &amp; Romagn.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9924,10 +9915,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>489771.1399207082</v>
+        <v>490117.731828619</v>
       </c>
       <c r="R84" t="n">
-        <v>7140982.399260296</v>
+        <v>7140861.85080409</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -9984,22 +9975,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111492279</v>
+        <v>111480293</v>
       </c>
       <c r="B85" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10012,21 +10003,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10036,10 +10027,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>489883.9159544517</v>
+        <v>489876.6856929233</v>
       </c>
       <c r="R85" t="n">
-        <v>7140764.831883652</v>
+        <v>7140936.621166581</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10096,22 +10087,22 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111492256</v>
+        <v>111480496</v>
       </c>
       <c r="B86" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10124,21 +10115,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10148,10 +10139,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>490019.4497180494</v>
+        <v>489789.3052706157</v>
       </c>
       <c r="R86" t="n">
-        <v>7140878.610287084</v>
+        <v>7140843.89074567</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10208,22 +10199,22 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111492272</v>
+        <v>111480383</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10232,25 +10223,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10260,10 +10251,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>489915.5371736808</v>
+        <v>489804.554930158</v>
       </c>
       <c r="R87" t="n">
-        <v>7140895.391365884</v>
+        <v>7140739.999929952</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10320,22 +10311,22 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck</t>
+          <t>Tore Dahlberg</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
+          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111492278</v>
+        <v>111492261</v>
       </c>
       <c r="B88" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10348,21 +10339,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10372,10 +10363,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>490007.7957919214</v>
+        <v>490022.003170063</v>
       </c>
       <c r="R88" t="n">
-        <v>7141024.449337299</v>
+        <v>7140997.579618414</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10444,10 +10435,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111492271</v>
+        <v>111492254</v>
       </c>
       <c r="B89" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10460,21 +10451,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10484,10 +10475,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>490018.4433133323</v>
+        <v>489798.4158412284</v>
       </c>
       <c r="R89" t="n">
-        <v>7140968.604357163</v>
+        <v>7140977.981913811</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10556,10 +10547,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111492255</v>
+        <v>111492280</v>
       </c>
       <c r="B90" t="n">
-        <v>73696</v>
+        <v>90351</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10568,25 +10559,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6440</v>
+        <v>4787</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granriska</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lactarius zonarioides</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Kühner &amp; Romagn.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10596,10 +10587,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>489860.3922942375</v>
+        <v>489771.1399207082</v>
       </c>
       <c r="R90" t="n">
-        <v>7140725.536366037</v>
+        <v>7140982.399260296</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10668,7 +10659,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111492276</v>
+        <v>111492273</v>
       </c>
       <c r="B91" t="n">
         <v>78578</v>
@@ -10708,10 +10699,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>489764.8000431156</v>
+        <v>489874.3581914994</v>
       </c>
       <c r="R91" t="n">
-        <v>7140640.615804542</v>
+        <v>7140887.739431102</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10780,10 +10771,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111480496</v>
+        <v>111492272</v>
       </c>
       <c r="B92" t="n">
-        <v>85715</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10796,21 +10787,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10820,10 +10811,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>489789.3052706157</v>
+        <v>489915.5371736808</v>
       </c>
       <c r="R92" t="n">
-        <v>7140843.89074567</v>
+        <v>7140895.391365884</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -10880,22 +10871,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111480445</v>
+        <v>111492275</v>
       </c>
       <c r="B93" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10908,21 +10899,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10932,10 +10923,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>490117.731828619</v>
+        <v>489806.4619114766</v>
       </c>
       <c r="R93" t="n">
-        <v>7140861.85080409</v>
+        <v>7140662.11125663</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -10992,12 +10983,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Tore Dahlberg, Elvira Klang, Elicia Olsson, Filippa Paperin, Jonathan Frendel, Karl Soler Kinnerbäck, Elias Blad, Signe Propst, Ivar Anderberg, Kai Strömberg, Astrid Blomberg, Melvin Lewin, Iris Elmér</t>
+          <t>Karl Soler Kinnerbäck, Elicia Olsson, Signe Propst, Tore Dahlberg, Melvin Lewin, Elvira Klang, Filippa Paperin, Elias Blad, Iris Elmér, Ivar Anderberg, Kai Strömberg, Jonathan Frendel</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
@@ -11228,10 +11219,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111480141</v>
+        <v>111480069</v>
       </c>
       <c r="B96" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11240,25 +11231,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11268,10 +11259,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>489770.4033965064</v>
+        <v>489808.3789904107</v>
       </c>
       <c r="R96" t="n">
-        <v>7140891.545973015</v>
+        <v>7140977.94875525</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,10 +11331,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111480161</v>
+        <v>111480087</v>
       </c>
       <c r="B97" t="n">
-        <v>96368</v>
+        <v>90087</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11356,21 +11347,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>221952</v>
+        <v>3298</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11380,10 +11371,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>490135.9205220507</v>
+        <v>489792.3874608531</v>
       </c>
       <c r="R97" t="n">
-        <v>7140860.061565773</v>
+        <v>7140728.790892559</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11452,10 +11443,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111480184</v>
+        <v>111480008</v>
       </c>
       <c r="B98" t="n">
-        <v>78579</v>
+        <v>103273</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11464,25 +11455,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2081</v>
+        <v>221725</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11492,10 +11483,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>489770.4033965064</v>
+        <v>490011.645166218</v>
       </c>
       <c r="R98" t="n">
-        <v>7140891.545973015</v>
+        <v>7140876.472447483</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11564,10 +11555,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111480183</v>
+        <v>111480141</v>
       </c>
       <c r="B99" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11576,25 +11567,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11604,10 +11595,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>490012.5186072908</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R99" t="n">
-        <v>7140878.632872825</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -11676,10 +11667,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111480185</v>
+        <v>111480161</v>
       </c>
       <c r="B100" t="n">
-        <v>78579</v>
+        <v>96368</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11688,25 +11679,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11716,10 +11707,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>489776.7843540448</v>
+        <v>490135.9205220507</v>
       </c>
       <c r="R100" t="n">
-        <v>7140856.479597869</v>
+        <v>7140860.061565773</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11788,10 +11779,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111480008</v>
+        <v>111480186</v>
       </c>
       <c r="B101" t="n">
-        <v>103273</v>
+        <v>78579</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11800,25 +11791,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>221725</v>
+        <v>2081</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11828,10 +11819,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>490011.645166218</v>
+        <v>489758.3970701658</v>
       </c>
       <c r="R101" t="n">
-        <v>7140876.472447483</v>
+        <v>7140669.194484891</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11900,10 +11891,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111480043</v>
+        <v>111480185</v>
       </c>
       <c r="B102" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11916,21 +11907,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11940,10 +11931,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>489811.4112532215</v>
+        <v>489776.7843540448</v>
       </c>
       <c r="R102" t="n">
-        <v>7140977.938669946</v>
+        <v>7140856.479597869</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12012,10 +12003,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111480087</v>
+        <v>111480183</v>
       </c>
       <c r="B103" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12024,25 +12015,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12052,10 +12043,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>489792.3874608531</v>
+        <v>490012.5186072908</v>
       </c>
       <c r="R103" t="n">
-        <v>7140728.790892559</v>
+        <v>7140878.632872825</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12124,10 +12115,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111480069</v>
+        <v>111480043</v>
       </c>
       <c r="B104" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12140,21 +12131,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12164,10 +12155,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>489808.3789904107</v>
+        <v>489811.4112532215</v>
       </c>
       <c r="R104" t="n">
-        <v>7140977.94875525</v>
+        <v>7140977.938669946</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12236,7 +12227,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111480186</v>
+        <v>111480184</v>
       </c>
       <c r="B105" t="n">
         <v>78579</v>
@@ -12276,10 +12267,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>489758.3970701658</v>
+        <v>489770.4033965064</v>
       </c>
       <c r="R105" t="n">
-        <v>7140669.194484891</v>
+        <v>7140891.545973015</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
